--- a/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout_simple_naming.xlsx
+++ b/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout_simple_naming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/jabj_mmmi_sdu_dk/Documents/PhD_Project_Jakob/Twin4build/python/BuildingEnergyModel/BuildingEnergyModel/twin4build/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="8_{AAA6B40C-6A0C-4905-8430-5C49F148860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{488770D2-7DCF-4780-8896-20C9618FC037}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="8_{AAA6B40C-6A0C-4905-8430-5C49F148860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18CCF34B-5E17-45E2-9F01-3B8E69F841C4}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-105" windowWidth="38640" windowHeight="21240" activeTab="10" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-38055" yWindow="585" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="3" r:id="rId1"/>
@@ -402,9 +402,6 @@
     <t>Ø20-601b-2_temperature;Ø20-601b-2_CO2</t>
   </si>
   <si>
-    <t>CO2Concentration</t>
-  </si>
-  <si>
     <t>isExternal</t>
   </si>
   <si>
@@ -454,6 +451,9 @@
   </si>
   <si>
     <t>Space</t>
+  </si>
+  <si>
+    <t>Co2</t>
   </si>
 </sst>
 </file>
@@ -1012,39 +1012,39 @@
         <v>101</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>87</v>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D904F809-0565-4493-A542-77B590BDC86C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>82</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>84</v>
@@ -1110,10 +1110,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
@@ -1121,10 +1121,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
         <v>119</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1267,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1398,7 +1398,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>102</v>
@@ -1617,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>86</v>
@@ -1638,7 +1638,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>86</v>
@@ -6662,8 +6662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F9D35B-B713-4EC3-BA55-A4EE8F2F331C}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6743,7 +6743,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
@@ -12699,7 +12699,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B48:B1048576 B2:B46" xr:uid="{CDBF1DD2-FE2B-4960-AE5E-D5DDA44A6748}">
       <formula1>heating_system_names</formula1>
     </dataValidation>
@@ -12784,7 +12784,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
@@ -40309,7 +40309,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
@@ -40323,7 +40323,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
         <v>84</v>

--- a/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout_simple_naming.xlsx
+++ b/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout_simple_naming.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/jabj_mmmi_sdu_dk/Documents/PhD_Project_Jakob/Twin4build/python/BuildingEnergyModel/BuildingEnergyModel/twin4build/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="8_{AAA6B40C-6A0C-4905-8430-5C49F148860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18CCF34B-5E17-45E2-9F01-3B8E69F841C4}"/>
+  <xr:revisionPtr revIDLastSave="538" documentId="8_{AAA6B40C-6A0C-4905-8430-5C49F148860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA16BDFB-8A35-43B0-B96C-3A615FD10DFD}"/>
   <bookViews>
-    <workbookView xWindow="-38055" yWindow="585" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
-    <sheet name="Systems" sheetId="3" r:id="rId1"/>
+    <sheet name="System" sheetId="3" r:id="rId1"/>
     <sheet name="BuildingSpace" sheetId="1" r:id="rId2"/>
     <sheet name="Damper" sheetId="4" r:id="rId3"/>
     <sheet name="SpaceHeater" sheetId="2" r:id="rId4"/>
@@ -32,21 +32,22 @@
   <definedNames>
     <definedName name="controller_options">Controller_options!$A$1:$A$3</definedName>
     <definedName name="cooling_coil_names">OFFSET(#REF!, 0, 0, COUNTA(#REF!)-1, 1)</definedName>
-    <definedName name="cooling_system_names">OFFSET(Systems!$C$2, 0, 0, COUNTA(Systems!$C:$C), 1)</definedName>
+    <definedName name="cooling_system_names">IF(COUNTA(System!$C:$C)&gt;1,OFFSET(System!$C$2, 0, 0, COUNTA(System!$C:$C)-1, 1),"")</definedName>
     <definedName name="count_name_occurences">_xlfn.LAMBDA(_xlpm.cell_,COUNTIF(ventilation_system_names,_xlpm.cell_)+COUNTIF(heating_system_names,_xlpm.cell_)+COUNTIF(cooling_system_names,_xlpm.cell_)+COUNTIF(damper_names,_xlpm.cell_)+COUNTIF(space_heater_names,_xlpm.cell_)+COUNTIF(valve_names,_xlpm.cell_)+COUNTIF(space_names,_xlpm.cell_)+COUNTIF(heating_coil_names,_xlpm.cell_)+COUNTIF(cooling_coil_names,_xlpm.cell_))</definedName>
     <definedName name="damper_names">OFFSET(Damper!$A$2, 0, 0, COUNTA(Damper!$A:$A), 1)</definedName>
-    <definedName name="heating_coil_names">OFFSET(Coil!$A$2, 0, 0, COUNTA(Coil!$A:$A), 1)</definedName>
-    <definedName name="heating_system_names">OFFSET(Systems!$B$2, 0, 0, COUNTA(Systems!$B:$B), 1)</definedName>
+    <definedName name="heating_coil_names">IF(COUNTA(Coil!$A:$A)&gt;1,OFFSET(Coil!$A$2, 0, 0, COUNTA(Coil!$A:$A), 1),"")</definedName>
+    <definedName name="heating_system_names">OFFSET(System!$B$2, 0, 0, COUNTA(System!$B:$B)-1, 1)</definedName>
     <definedName name="property_class">named_ranges!$A$2:$A$1048576</definedName>
     <definedName name="property_instance">Property!$A$2:$A$1048576</definedName>
     <definedName name="sheet_dampers">Damper!$1:$1048576</definedName>
     <definedName name="sheet_space_heaters">SpaceHeater!$1:$1048576</definedName>
     <definedName name="sheet_spaces">BuildingSpace!$1:$1048576</definedName>
-    <definedName name="sheet_systems">Systems!$1:$1048576</definedName>
+    <definedName name="sheet_systems">System!$1:$1048576</definedName>
     <definedName name="space_heater_names">OFFSET(SpaceHeater!#REF!, 0, 0, COUNTA(SpaceHeater!$A:$A), 1)</definedName>
     <definedName name="space_names">BuildingSpace!$A$2:$A$1048576</definedName>
+    <definedName name="system_names">_xlfn.VSTACK(ventilation_system_names,heating_system_names,cooling_system_names)</definedName>
     <definedName name="valve_names">Valve!$A$2:$A$1048576</definedName>
-    <definedName name="ventilation_system_names">Systems!$A$2:$A$1048576</definedName>
+    <definedName name="ventilation_system_names">IF(COUNTA(System!$A:$A)&gt;1,OFFSET(System!$A$2, 0, 0, COUNTA(System!$A:$A)-1, 1),"")</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
   <si>
     <t>Ventilation system name</t>
   </si>
@@ -339,28 +340,10 @@
     <t>OpeningPosition</t>
   </si>
   <si>
-    <t>Ø20-601b-2_temperature</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
-    <t>Ø20-601b-2_CO2</t>
-  </si>
-  <si>
-    <t>Ø20-601b-2_radiator_valve_position</t>
-  </si>
-  <si>
-    <t>Ø20-601b-2_damper_position</t>
-  </si>
-  <si>
-    <t>Ø20-601b-2_shading_position</t>
-  </si>
-  <si>
     <t>Energy</t>
-  </si>
-  <si>
-    <t>Ø20-601b-2_radiator_heat</t>
   </si>
   <si>
     <t>Motion</t>
@@ -397,9 +380,6 @@
   </si>
   <si>
     <t>hasProperty</t>
-  </si>
-  <si>
-    <t>Ø20-601b-2_temperature;Ø20-601b-2_CO2</t>
   </si>
   <si>
     <t>isExternal</t>
@@ -454,6 +434,75 @@
   </si>
   <si>
     <t>Co2</t>
+  </si>
+  <si>
+    <t>Air to air heat recovery;Supply fan</t>
+  </si>
+  <si>
+    <t>VE02 Primary Airflow Temperature BHR sensor</t>
+  </si>
+  <si>
+    <t>VE02 Primary Airflow Temperature AHR sensor</t>
+  </si>
+  <si>
+    <t>VE02 Primary Airflow Temperature AHC sensor</t>
+  </si>
+  <si>
+    <t>VE02 Primary Airflow Temperature AHC property</t>
+  </si>
+  <si>
+    <t>VE02 Primary Airflow Temperature AHR property</t>
+  </si>
+  <si>
+    <t>VE02 Primary Airflow Temperature BHR property</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2 radiator heat property</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2 damper position property</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2 radiator valve position property</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2 CO2 property</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2 temperature property</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2 temperature property;Ø20-601b-2 CO2 property</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2 shading position property</t>
+  </si>
+  <si>
+    <t>VE02 Primary Airflow Temperature AHR sensor;Heating coil</t>
+  </si>
+  <si>
+    <t>VE02 Secondary Airflow Temperature BHR sensor</t>
+  </si>
+  <si>
+    <t>VE02 Primary Airflow Temperature AHC sensor;Supply fan</t>
+  </si>
+  <si>
+    <t>VE02 Primary Airflow Temperature BHR sensor;VE02 Primary Airflow Temperature AHR sensor;VE02 Secondary Airflow Temperature BHR sensor;Exhaust fan</t>
+  </si>
+  <si>
+    <t>Outdoor environment;Air to air heat recovery</t>
+  </si>
+  <si>
+    <t>Heating coil;Supply damper</t>
+  </si>
+  <si>
+    <t>Air to air heat recovery;Exhaust damper</t>
+  </si>
+  <si>
+    <t>VE02 Primary Airflow Temperature BHR property;VE02 Primary Airflow Temperature AHR property;VE02 Secondary Airflow Temperature BHR property</t>
+  </si>
+  <si>
+    <t>VE02 Secondary Airflow Temperature BHR property</t>
   </si>
 </sst>
 </file>
@@ -632,6 +681,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>323310</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB500964-3927-4A67-BFB8-0A97850FB440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="1343025"/>
+          <a:ext cx="13734510" cy="6447192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -923,7 +1021,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -934,7 +1032,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,11 +1062,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A2:C1048576" xr:uid="{A750DCD6-2C0D-4A1E-B416-01652FC4C907}">
-      <formula1>count_name_occurences(A2)&lt;=1</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -979,14 +1072,14 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
@@ -1009,45 +1102,45 @@
         <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
         <v>112</v>
       </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1062,95 +1155,163 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D904F809-0565-4493-A542-77B590BDC86C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
         <v>114</v>
       </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B9" t="s">
         <v>118</v>
       </c>
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{A9040C0C-604B-456F-96D4-0A20D2AB5CEB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{A9040C0C-604B-456F-96D4-0A20D2AB5CEB}">
       <formula1>property_instance</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6" xr:uid="{B410286B-19C8-413D-AA2F-9742B6293571}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{B410286B-19C8-413D-AA2F-9742B6293571}">
       <formula1>space_names</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1158,7 +1319,7 @@
           <x14:formula1>
             <xm:f>BuildingSpace!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:B1048576</xm:sqref>
+          <xm:sqref>C7:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1168,20 +1329,21 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E1EFB1-EA7C-414E-94A7-98027577BDF8}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
@@ -1191,28 +1353,37 @@
       <c r="C1" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
     </row>
   </sheetData>
@@ -1233,15 +1404,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDB24A9-A7F1-4854-93D9-EBD1381307DD}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1251,12 +1422,12 @@
         <v>64</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>70</v>
@@ -1264,15 +1435,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>81</v>
@@ -1280,7 +1451,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>81</v>
@@ -1288,7 +1459,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>81</v>
@@ -1296,11 +1467,46 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>88</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1318,7 +1524,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1534,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1348,57 +1554,57 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1448,13 +1654,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1464,7 +1670,7 @@
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>60</v>
@@ -1472,10 +1678,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C2">
         <v>466.54</v>
@@ -1501,7 +1707,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,8 +1715,8 @@
     <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -1540,10 +1746,10 @@
         <v>62</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>59</v>
@@ -1617,10 +1823,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
         <v>65</v>
@@ -1638,10 +1847,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
         <v>66</v>
@@ -6662,8 +6874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F9D35B-B713-4EC3-BA55-A4EE8F2F331C}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6671,7 +6883,7 @@
     <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -6696,10 +6908,10 @@
         <v>62</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -6743,13 +6955,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L2">
         <f>3*515+2*572</f>
@@ -12699,7 +12911,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B48:B1048576 B2:B46" xr:uid="{CDBF1DD2-FE2B-4960-AE5E-D5DDA44A6748}">
       <formula1>heating_system_names</formula1>
     </dataValidation>
@@ -12716,7 +12928,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12725,7 +12937,7 @@
     <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
@@ -12746,10 +12958,10 @@
         <v>62</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -12784,13 +12996,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="G2">
         <f>5*0.468</f>
@@ -22137,10 +22349,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4B0EA7-434A-4CA3-97FE-A57E5232E2E7}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22148,9 +22360,11 @@
     <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
@@ -22160,8 +22374,14 @@
       <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -22171,68 +22391,74 @@
       <c r="C2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" ref="A6:A66" si="0">IF(AND(B6&lt;&gt;"",C6&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("HC_",B6),"_"),C6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -28144,10 +28370,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{2406BDD5-983E-4F7B-9889-A7801E93AEBE}">
       <formula1>"heating,cooling"</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D3:E1048576" xr:uid="{374565C9-1149-4287-9BC4-32CC991B8BB7}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28156,135 +28383,153 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A142E3-535E-45D7-B544-7DE9118FD57D}">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="G2">
-        <f>5000/3600*1.225</f>
-        <v>1.7013888888888891</v>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="I2">
         <f>5000/3600*1.225</f>
         <v>1.7013888888888891</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>5000/3600*1.225</f>
+        <v>1.7013888888888891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" ref="A6:A66" si="0">IF(B6&lt;&gt;"",_xlfn.CONCAT("HR_",B6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -34196,10 +34441,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{164381D2-0FCF-4A4E-A4F9-78C16B3F8259}">
       <formula1>ventilation_system_names</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C3:D1048576" xr:uid="{7B0207D7-F0F5-45A7-B38C-70BCADF38C7F}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34208,10 +34454,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2999C7-12DB-42EA-8FDC-B5FA87CE6F00}">
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34219,19 +34465,21 @@
     <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
@@ -34241,38 +34489,44 @@
       <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -34282,15 +34536,18 @@
       <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="F2">
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2">
         <f>5000/3600*1.225</f>
         <v>1.7013888888888891</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -34300,51 +34557,54 @@
       <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="F3">
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3">
         <f>5000/3600*1.225</f>
         <v>1.7013888888888891</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" ref="A10:A66" si="0">IF(AND(B10&lt;&gt;"",C10&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("F_",C10),"_"),B10),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40273,7 +40533,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40281,7 +40541,7 @@
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -40309,10 +40569,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -40323,10 +40583,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout_simple_naming.xlsx
+++ b/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout_simple_naming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/jabj_mmmi_sdu_dk/Documents/PhD_Project_Jakob/Twin4build/python/BuildingEnergyModel/BuildingEnergyModel/twin4build/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="538" documentId="8_{AAA6B40C-6A0C-4905-8430-5C49F148860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA16BDFB-8A35-43B0-B96C-3A615FD10DFD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E73693FB-AD66-4C1C-BA47-DFA0CC2CBC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="3" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="136">
   <si>
     <t>Ventilation system name</t>
   </si>
@@ -427,9 +427,6 @@
     <t>Damper position sensor</t>
   </si>
   <si>
-    <t>Shading position sensor</t>
-  </si>
-  <si>
     <t>Space</t>
   </si>
   <si>
@@ -689,13 +686,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>323310</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>160692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1137,10 +1134,10 @@
         <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1155,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D904F809-0565-4493-A542-77B590BDC86C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,10 +1189,10 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1203,10 +1200,10 @@
         <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1214,10 +1211,10 @@
         <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1225,21 +1222,24 @@
         <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,13 +1247,13 @@
         <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1261,21 +1261,21 @@
         <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -1285,29 +1285,15 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A10" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{B410286B-19C8-413D-AA2F-9742B6293571}">
+      <formula1>space_names</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{A9040C0C-604B-456F-96D4-0A20D2AB5CEB}">
       <formula1>property_instance</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{B410286B-19C8-413D-AA2F-9742B6293571}">
-      <formula1>space_names</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1319,7 +1305,7 @@
           <x14:formula1>
             <xm:f>BuildingSpace!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>C7:C1048576</xm:sqref>
+          <xm:sqref>C6:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1332,7 +1318,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,10 +1351,10 @@
         <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1407,7 +1393,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1413,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>70</v>
@@ -1435,15 +1421,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>81</v>
@@ -1451,7 +1437,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>81</v>
@@ -1459,7 +1445,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>81</v>
@@ -1467,7 +1453,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>83</v>
@@ -1475,7 +1461,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -1483,7 +1469,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -1491,7 +1477,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -1499,7 +1485,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -1604,7 +1590,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1678,10 +1664,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2">
         <v>466.54</v>
@@ -1706,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A747EB8B-49DD-40FE-8CAD-B5A7A33DF8B7}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1823,13 +1809,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
         <v>65</v>
@@ -1847,13 +1833,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
         <v>66</v>
@@ -6955,13 +6941,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L2">
         <f>3*515+2*572</f>
@@ -12996,13 +12982,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2">
         <f>5*0.468</f>
@@ -22392,10 +22378,10 @@
         <v>67</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -28385,8 +28371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A142E3-535E-45D7-B544-7DE9118FD57D}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28451,10 +28437,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I2">
         <f>5000/3600*1.225</f>
@@ -34537,7 +34523,7 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <f>5000/3600*1.225</f>
@@ -40569,10 +40555,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -40583,10 +40569,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout_simple_naming.xlsx
+++ b/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout_simple_naming.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{E73693FB-AD66-4C1C-BA47-DFA0CC2CBC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="3" r:id="rId1"/>
@@ -1692,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A747EB8B-49DD-40FE-8CAD-B5A7A33DF8B7}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -40518,8 +40518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEF019-D7A4-42FF-B5C0-3702855A99F7}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout_simple_naming.xlsx
+++ b/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout_simple_naming.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{E73693FB-AD66-4C1C-BA47-DFA0CC2CBC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="3" r:id="rId1"/>
@@ -645,13 +645,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1018,7 +1017,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1089,7 +1088,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1113,19 +1112,19 @@
       <c r="H1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>100</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>102</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1136,7 +1135,7 @@
       <c r="C2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1168,7 +1167,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1177,15 +1176,15 @@
       <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B2" t="s">
@@ -1196,7 +1195,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B3" t="s">
@@ -1207,7 +1206,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B4" t="s">
@@ -1218,7 +1217,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B5" t="s">
@@ -1229,7 +1228,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B6" t="s">
@@ -1243,7 +1242,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B7" t="s">
@@ -1257,7 +1256,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B8" t="s">
@@ -1271,7 +1270,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B9" t="s">
@@ -1285,7 +1284,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1330,7 +1329,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1339,15 +1338,15 @@
       <c r="C1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B2" t="s">
@@ -1361,16 +1360,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -1404,63 +1403,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B8" t="s">
@@ -1468,7 +1467,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B9" t="s">
@@ -1476,7 +1475,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B10" t="s">
@@ -1484,7 +1483,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B11" t="s">
@@ -1492,7 +1491,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1522,16 +1521,16 @@
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1652,13 +1651,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1666,7 +1665,7 @@
       <c r="A2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C2">
@@ -1692,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A747EB8B-49DD-40FE-8CAD-B5A7A33DF8B7}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1721,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1731,10 +1730,10 @@
       <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>95</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1814,7 +1813,7 @@
       <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>121</v>
       </c>
       <c r="F2" t="s">
@@ -1838,7 +1837,7 @@
       <c r="D3" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>121</v>
       </c>
       <c r="F3" t="s">
@@ -6884,7 +6883,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6893,10 +6892,10 @@
       <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -12920,7 +12919,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
@@ -12934,7 +12933,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -12943,10 +12942,10 @@
       <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -12978,7 +12977,7 @@
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -12987,7 +12986,7 @@
       <c r="D2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>122</v>
       </c>
       <c r="G2">
@@ -22344,14 +22343,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -22360,10 +22359,10 @@
       <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>95</v>
       </c>
     </row>
@@ -22371,16 +22370,16 @@
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>117</v>
       </c>
     </row>
@@ -28392,16 +28391,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -28439,7 +28438,7 @@
       <c r="C2" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>134</v>
       </c>
       <c r="I2">
@@ -28468,28 +28467,28 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
@@ -34466,7 +34465,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -34475,10 +34474,10 @@
       <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -40518,7 +40517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEF019-D7A4-42FF-B5C0-3702855A99F7}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -40531,7 +40530,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -40543,15 +40542,15 @@
       <c r="D1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -40565,7 +40564,7 @@
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -40577,706 +40576,531 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="4"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="4"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="4"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="4"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="4"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="4"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="4"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="4"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="4"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="4"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="4"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="4"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="4"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="4"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="4"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="4"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="4"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="4"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="4"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="4"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="4"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="4"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="4"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="4"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="4"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="4"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="4"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="4"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="4"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="4"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="4"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="4"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="4"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="4"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="4"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="4"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="4"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="4"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="4"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="4"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="4"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="4"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="4"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="4"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="4"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="4"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="4"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="4"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="4"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="4"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="4"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="4"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="4"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="4"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="4"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="4"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="4"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="4"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="B154" s="4"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="4"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="4"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="4"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="B158" s="4"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="4"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="4"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="4"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="4"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="4"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="B164" s="4"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="4"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="4"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="4"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="4"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="4"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="4"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="4"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="4"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="4"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="4"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="4"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="4"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="4"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="4"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="str">
         <f t="shared" ref="A179:A194" ca="1" si="0">IF(AND(C179&lt;&gt;"",D179&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D179),"_"),C179),"")</f>
         <v/>
       </c>
-      <c r="B179" s="4"/>
       <c r="D179" t="str" cm="1">
         <f t="array" aca="1" ref="D179" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C179))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C179))=1), "C", "")</f>
         <v/>
@@ -41299,7 +41123,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B180" s="4"/>
       <c r="D180" t="str" cm="1">
         <f t="array" aca="1" ref="D180" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C180))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C180))=1), "C", "")</f>
         <v/>
@@ -41322,7 +41145,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B181" s="4"/>
       <c r="D181" t="str" cm="1">
         <f t="array" aca="1" ref="D181" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C181))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C181))=1), "C", "")</f>
         <v/>
@@ -41345,7 +41167,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B182" s="4"/>
       <c r="D182" t="str" cm="1">
         <f t="array" aca="1" ref="D182" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C182))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C182))=1), "C", "")</f>
         <v/>
@@ -41368,7 +41189,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B183" s="4"/>
       <c r="D183" t="str" cm="1">
         <f t="array" aca="1" ref="D183" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C183))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C183))=1), "C", "")</f>
         <v/>
@@ -41391,7 +41211,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B184" s="4"/>
       <c r="D184" t="str" cm="1">
         <f t="array" aca="1" ref="D184" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C184))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C184))=1), "C", "")</f>
         <v/>
@@ -41414,7 +41233,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B185" s="4"/>
       <c r="D185" t="str" cm="1">
         <f t="array" aca="1" ref="D185" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C185))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C185))=1), "C", "")</f>
         <v/>
@@ -41437,7 +41255,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B186" s="4"/>
       <c r="D186" t="str" cm="1">
         <f t="array" aca="1" ref="D186" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C186))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C186))=1), "C", "")</f>
         <v/>
@@ -41460,7 +41277,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B187" s="4"/>
       <c r="D187" t="str" cm="1">
         <f t="array" aca="1" ref="D187" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C187))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C187))=1), "C", "")</f>
         <v/>
@@ -41483,7 +41299,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B188" s="4"/>
       <c r="D188" t="str" cm="1">
         <f t="array" aca="1" ref="D188" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C188))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C188))=1), "C", "")</f>
         <v/>
@@ -41506,7 +41321,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B189" s="4"/>
       <c r="D189" t="str" cm="1">
         <f t="array" aca="1" ref="D189" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C189))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C189))=1), "C", "")</f>
         <v/>
@@ -41529,7 +41343,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B190" s="4"/>
       <c r="D190" t="str" cm="1">
         <f t="array" aca="1" ref="D190" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C190))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C190))=1), "C", "")</f>
         <v/>
@@ -41552,7 +41365,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B191" s="4"/>
       <c r="D191" t="str" cm="1">
         <f t="array" aca="1" ref="D191" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C191))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C191))=1), "C", "")</f>
         <v/>
@@ -41575,7 +41387,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B192" s="4"/>
       <c r="D192" t="str" cm="1">
         <f t="array" aca="1" ref="D192" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C192))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C192))=1), "C", "")</f>
         <v/>
@@ -41598,7 +41409,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B193" s="4"/>
       <c r="D193" t="str" cm="1">
         <f t="array" aca="1" ref="D193" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C193))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C193))=1), "C", "")</f>
         <v/>
@@ -41621,7 +41431,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B194" s="4"/>
       <c r="D194" t="str" cm="1">
         <f t="array" aca="1" ref="D194" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C194))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C194))=1), "C", "")</f>
         <v/>
@@ -41644,7 +41453,6 @@
         <f t="shared" ref="A195:A258" ca="1" si="4">IF(AND(C195&lt;&gt;"",D195&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D195),"_"),C195),"")</f>
         <v/>
       </c>
-      <c r="B195" s="4"/>
       <c r="D195" t="str" cm="1">
         <f t="array" aca="1" ref="D195" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C195))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C195))=1), "C", "")</f>
         <v/>
@@ -41667,7 +41475,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B196" s="4"/>
       <c r="D196" t="str" cm="1">
         <f t="array" aca="1" ref="D196" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C196))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C196))=1), "C", "")</f>
         <v/>
@@ -41690,7 +41497,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B197" s="4"/>
       <c r="D197" t="str" cm="1">
         <f t="array" aca="1" ref="D197" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C197))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C197))=1), "C", "")</f>
         <v/>
@@ -41713,7 +41519,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B198" s="4"/>
       <c r="D198" t="str" cm="1">
         <f t="array" aca="1" ref="D198" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C198))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C198))=1), "C", "")</f>
         <v/>
@@ -41736,7 +41541,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B199" s="4"/>
       <c r="D199" t="str" cm="1">
         <f t="array" aca="1" ref="D199" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C199))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C199))=1), "C", "")</f>
         <v/>
@@ -41759,7 +41563,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B200" s="4"/>
       <c r="D200" t="str" cm="1">
         <f t="array" aca="1" ref="D200" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C200))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C200))=1), "C", "")</f>
         <v/>
@@ -41782,7 +41585,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B201" s="4"/>
       <c r="D201" t="str" cm="1">
         <f t="array" aca="1" ref="D201" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C201))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C201))=1), "C", "")</f>
         <v/>
@@ -41805,7 +41607,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B202" s="4"/>
       <c r="D202" t="str" cm="1">
         <f t="array" aca="1" ref="D202" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C202))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C202))=1), "C", "")</f>
         <v/>
@@ -41828,7 +41629,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B203" s="4"/>
       <c r="D203" t="str" cm="1">
         <f t="array" aca="1" ref="D203" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C203))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C203))=1), "C", "")</f>
         <v/>
@@ -41851,7 +41651,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B204" s="4"/>
       <c r="D204" t="str" cm="1">
         <f t="array" aca="1" ref="D204" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C204))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C204))=1), "C", "")</f>
         <v/>
@@ -41874,7 +41673,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B205" s="4"/>
       <c r="D205" t="str" cm="1">
         <f t="array" aca="1" ref="D205" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C205))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C205))=1), "C", "")</f>
         <v/>
@@ -41897,7 +41695,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B206" s="4"/>
       <c r="D206" t="str" cm="1">
         <f t="array" aca="1" ref="D206" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C206))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C206))=1), "C", "")</f>
         <v/>
@@ -41920,7 +41717,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B207" s="4"/>
       <c r="D207" t="str" cm="1">
         <f t="array" aca="1" ref="D207" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C207))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C207))=1), "C", "")</f>
         <v/>
@@ -41943,7 +41739,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B208" s="4"/>
       <c r="D208" t="str" cm="1">
         <f t="array" aca="1" ref="D208" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C208))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C208))=1), "C", "")</f>
         <v/>
@@ -41966,7 +41761,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B209" s="4"/>
       <c r="D209" t="str" cm="1">
         <f t="array" aca="1" ref="D209" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C209))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C209))=1), "C", "")</f>
         <v/>
@@ -41989,7 +41783,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B210" s="4"/>
       <c r="D210" t="str" cm="1">
         <f t="array" aca="1" ref="D210" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C210))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C210))=1), "C", "")</f>
         <v/>
@@ -42012,7 +41805,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B211" s="4"/>
       <c r="D211" t="str" cm="1">
         <f t="array" aca="1" ref="D211" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C211))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C211))=1), "C", "")</f>
         <v/>
@@ -42035,7 +41827,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B212" s="4"/>
       <c r="D212" t="str" cm="1">
         <f t="array" aca="1" ref="D212" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C212))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C212))=1), "C", "")</f>
         <v/>
@@ -42058,7 +41849,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B213" s="4"/>
       <c r="D213" t="str" cm="1">
         <f t="array" aca="1" ref="D213" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C213))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C213))=1), "C", "")</f>
         <v/>
@@ -42081,7 +41871,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B214" s="4"/>
       <c r="D214" t="str" cm="1">
         <f t="array" aca="1" ref="D214" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C214))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C214))=1), "C", "")</f>
         <v/>
@@ -42104,7 +41893,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B215" s="4"/>
       <c r="D215" t="str" cm="1">
         <f t="array" aca="1" ref="D215" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C215))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C215))=1), "C", "")</f>
         <v/>
@@ -42127,7 +41915,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B216" s="4"/>
       <c r="D216" t="str" cm="1">
         <f t="array" aca="1" ref="D216" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C216))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C216))=1), "C", "")</f>
         <v/>
@@ -42150,7 +41937,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B217" s="4"/>
       <c r="D217" t="str" cm="1">
         <f t="array" aca="1" ref="D217" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C217))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C217))=1), "C", "")</f>
         <v/>
@@ -42173,7 +41959,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B218" s="4"/>
       <c r="D218" t="str" cm="1">
         <f t="array" aca="1" ref="D218" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C218))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C218))=1), "C", "")</f>
         <v/>
@@ -42196,7 +41981,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B219" s="4"/>
       <c r="D219" t="str" cm="1">
         <f t="array" aca="1" ref="D219" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C219))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C219))=1), "C", "")</f>
         <v/>
@@ -42219,7 +42003,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B220" s="4"/>
       <c r="D220" t="str" cm="1">
         <f t="array" aca="1" ref="D220" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C220))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C220))=1), "C", "")</f>
         <v/>
@@ -42242,7 +42025,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B221" s="4"/>
       <c r="D221" t="str" cm="1">
         <f t="array" aca="1" ref="D221" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C221))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C221))=1), "C", "")</f>
         <v/>
@@ -42265,7 +42047,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B222" s="4"/>
       <c r="D222" t="str" cm="1">
         <f t="array" aca="1" ref="D222" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C222))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C222))=1), "C", "")</f>
         <v/>
@@ -42288,7 +42069,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B223" s="4"/>
       <c r="D223" t="str" cm="1">
         <f t="array" aca="1" ref="D223" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C223))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C223))=1), "C", "")</f>
         <v/>
@@ -42311,7 +42091,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B224" s="4"/>
       <c r="D224" t="str" cm="1">
         <f t="array" aca="1" ref="D224" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C224))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C224))=1), "C", "")</f>
         <v/>
@@ -42334,7 +42113,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B225" s="4"/>
       <c r="D225" t="str" cm="1">
         <f t="array" aca="1" ref="D225" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C225))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C225))=1), "C", "")</f>
         <v/>
@@ -42357,7 +42135,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B226" s="4"/>
       <c r="D226" t="str" cm="1">
         <f t="array" aca="1" ref="D226" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C226))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C226))=1), "C", "")</f>
         <v/>
@@ -42380,7 +42157,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B227" s="4"/>
       <c r="D227" t="str" cm="1">
         <f t="array" aca="1" ref="D227" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C227))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C227))=1), "C", "")</f>
         <v/>
@@ -42403,7 +42179,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B228" s="4"/>
       <c r="D228" t="str" cm="1">
         <f t="array" aca="1" ref="D228" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C228))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C228))=1), "C", "")</f>
         <v/>
@@ -42426,7 +42201,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B229" s="4"/>
       <c r="D229" t="str" cm="1">
         <f t="array" aca="1" ref="D229" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C229))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C229))=1), "C", "")</f>
         <v/>
@@ -42449,7 +42223,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B230" s="4"/>
       <c r="D230" t="str" cm="1">
         <f t="array" aca="1" ref="D230" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C230))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C230))=1), "C", "")</f>
         <v/>
@@ -42472,7 +42245,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B231" s="4"/>
       <c r="D231" t="str" cm="1">
         <f t="array" aca="1" ref="D231" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C231))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C231))=1), "C", "")</f>
         <v/>
@@ -42495,7 +42267,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B232" s="4"/>
       <c r="D232" t="str" cm="1">
         <f t="array" aca="1" ref="D232" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C232))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C232))=1), "C", "")</f>
         <v/>
@@ -42518,7 +42289,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B233" s="4"/>
       <c r="D233" t="str" cm="1">
         <f t="array" aca="1" ref="D233" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C233))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C233))=1), "C", "")</f>
         <v/>
@@ -42541,7 +42311,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B234" s="4"/>
       <c r="D234" t="str" cm="1">
         <f t="array" aca="1" ref="D234" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C234))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C234))=1), "C", "")</f>
         <v/>
@@ -42564,7 +42333,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B235" s="4"/>
       <c r="D235" t="str" cm="1">
         <f t="array" aca="1" ref="D235" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C235))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C235))=1), "C", "")</f>
         <v/>
@@ -42587,7 +42355,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B236" s="4"/>
       <c r="D236" t="str" cm="1">
         <f t="array" aca="1" ref="D236" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C236))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C236))=1), "C", "")</f>
         <v/>
@@ -42610,7 +42377,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B237" s="4"/>
       <c r="D237" t="str" cm="1">
         <f t="array" aca="1" ref="D237" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C237))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C237))=1), "C", "")</f>
         <v/>
@@ -42633,7 +42399,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B238" s="4"/>
       <c r="D238" t="str" cm="1">
         <f t="array" aca="1" ref="D238" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C238))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C238))=1), "C", "")</f>
         <v/>
@@ -42656,7 +42421,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B239" s="4"/>
       <c r="D239" t="str" cm="1">
         <f t="array" aca="1" ref="D239" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C239))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C239))=1), "C", "")</f>
         <v/>
@@ -42679,7 +42443,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B240" s="4"/>
       <c r="D240" t="str" cm="1">
         <f t="array" aca="1" ref="D240" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C240))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C240))=1), "C", "")</f>
         <v/>
@@ -42702,7 +42465,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B241" s="4"/>
       <c r="D241" t="str" cm="1">
         <f t="array" aca="1" ref="D241" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C241))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C241))=1), "C", "")</f>
         <v/>
@@ -42725,7 +42487,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B242" s="4"/>
       <c r="D242" t="str" cm="1">
         <f t="array" aca="1" ref="D242" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C242))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C242))=1), "C", "")</f>
         <v/>
@@ -42748,7 +42509,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B243" s="4"/>
       <c r="D243" t="str" cm="1">
         <f t="array" aca="1" ref="D243" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C243))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C243))=1), "C", "")</f>
         <v/>
@@ -42771,7 +42531,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B244" s="4"/>
       <c r="D244" t="str" cm="1">
         <f t="array" aca="1" ref="D244" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C244))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C244))=1), "C", "")</f>
         <v/>
@@ -42794,7 +42553,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B245" s="4"/>
       <c r="D245" t="str" cm="1">
         <f t="array" aca="1" ref="D245" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C245))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C245))=1), "C", "")</f>
         <v/>
@@ -42817,7 +42575,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B246" s="4"/>
       <c r="D246" t="str" cm="1">
         <f t="array" aca="1" ref="D246" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C246))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C246))=1), "C", "")</f>
         <v/>
@@ -42840,7 +42597,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B247" s="4"/>
       <c r="D247" t="str" cm="1">
         <f t="array" aca="1" ref="D247" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C247))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C247))=1), "C", "")</f>
         <v/>
@@ -42863,7 +42619,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B248" s="4"/>
       <c r="D248" t="str" cm="1">
         <f t="array" aca="1" ref="D248" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C248))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C248))=1), "C", "")</f>
         <v/>
@@ -42886,7 +42641,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B249" s="4"/>
       <c r="D249" t="str" cm="1">
         <f t="array" aca="1" ref="D249" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C249))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C249))=1), "C", "")</f>
         <v/>
@@ -42909,7 +42663,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B250" s="4"/>
       <c r="D250" t="str" cm="1">
         <f t="array" aca="1" ref="D250" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C250))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C250))=1), "C", "")</f>
         <v/>
@@ -42932,7 +42685,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B251" s="4"/>
       <c r="D251" t="str" cm="1">
         <f t="array" aca="1" ref="D251" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C251))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C251))=1), "C", "")</f>
         <v/>
@@ -42955,7 +42707,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B252" s="4"/>
       <c r="D252" t="str" cm="1">
         <f t="array" aca="1" ref="D252" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C252))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C252))=1), "C", "")</f>
         <v/>
@@ -42978,7 +42729,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B253" s="4"/>
       <c r="D253" t="str" cm="1">
         <f t="array" aca="1" ref="D253" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C253))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C253))=1), "C", "")</f>
         <v/>
@@ -43001,7 +42751,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B254" s="4"/>
       <c r="D254" t="str" cm="1">
         <f t="array" aca="1" ref="D254" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C254))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C254))=1), "C", "")</f>
         <v/>
@@ -43024,7 +42773,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B255" s="4"/>
       <c r="D255" t="str" cm="1">
         <f t="array" aca="1" ref="D255" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C255))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C255))=1), "C", "")</f>
         <v/>
@@ -43047,7 +42795,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B256" s="4"/>
       <c r="D256" t="str" cm="1">
         <f t="array" aca="1" ref="D256" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C256))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C256))=1), "C", "")</f>
         <v/>
@@ -43070,7 +42817,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B257" s="4"/>
       <c r="D257" t="str" cm="1">
         <f t="array" aca="1" ref="D257" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C257))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C257))=1), "C", "")</f>
         <v/>
@@ -43093,7 +42839,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B258" s="4"/>
       <c r="D258" t="str" cm="1">
         <f t="array" aca="1" ref="D258" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C258))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C258))=1), "C", "")</f>
         <v/>
@@ -43116,7 +42861,6 @@
         <f t="shared" ref="A259:A322" ca="1" si="8">IF(AND(C259&lt;&gt;"",D259&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D259),"_"),C259),"")</f>
         <v/>
       </c>
-      <c r="B259" s="4"/>
       <c r="D259" t="str" cm="1">
         <f t="array" aca="1" ref="D259" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C259))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C259))=1), "C", "")</f>
         <v/>
@@ -43139,7 +42883,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B260" s="4"/>
       <c r="D260" t="str" cm="1">
         <f t="array" aca="1" ref="D260" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C260))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C260))=1), "C", "")</f>
         <v/>
@@ -43162,7 +42905,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B261" s="4"/>
       <c r="D261" t="str" cm="1">
         <f t="array" aca="1" ref="D261" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C261))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C261))=1), "C", "")</f>
         <v/>
@@ -43185,7 +42927,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B262" s="4"/>
       <c r="D262" t="str" cm="1">
         <f t="array" aca="1" ref="D262" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C262))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C262))=1), "C", "")</f>
         <v/>
@@ -43208,7 +42949,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B263" s="4"/>
       <c r="D263" t="str" cm="1">
         <f t="array" aca="1" ref="D263" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C263))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C263))=1), "C", "")</f>
         <v/>
@@ -43231,7 +42971,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B264" s="4"/>
       <c r="D264" t="str" cm="1">
         <f t="array" aca="1" ref="D264" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C264))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C264))=1), "C", "")</f>
         <v/>
@@ -43254,7 +42993,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B265" s="4"/>
       <c r="D265" t="str" cm="1">
         <f t="array" aca="1" ref="D265" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C265))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C265))=1), "C", "")</f>
         <v/>
@@ -43277,7 +43015,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B266" s="4"/>
       <c r="D266" t="str" cm="1">
         <f t="array" aca="1" ref="D266" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C266))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C266))=1), "C", "")</f>
         <v/>
@@ -43300,7 +43037,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B267" s="4"/>
       <c r="D267" t="str" cm="1">
         <f t="array" aca="1" ref="D267" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C267))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C267))=1), "C", "")</f>
         <v/>
@@ -43323,7 +43059,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B268" s="4"/>
       <c r="D268" t="str" cm="1">
         <f t="array" aca="1" ref="D268" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C268))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C268))=1), "C", "")</f>
         <v/>
@@ -43346,7 +43081,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B269" s="4"/>
       <c r="D269" t="str" cm="1">
         <f t="array" aca="1" ref="D269" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C269))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C269))=1), "C", "")</f>
         <v/>
@@ -43369,7 +43103,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B270" s="4"/>
       <c r="D270" t="str" cm="1">
         <f t="array" aca="1" ref="D270" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C270))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C270))=1), "C", "")</f>
         <v/>
@@ -43392,7 +43125,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B271" s="4"/>
       <c r="D271" t="str" cm="1">
         <f t="array" aca="1" ref="D271" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C271))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C271))=1), "C", "")</f>
         <v/>
@@ -43415,7 +43147,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B272" s="4"/>
       <c r="D272" t="str" cm="1">
         <f t="array" aca="1" ref="D272" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C272))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C272))=1), "C", "")</f>
         <v/>
@@ -43438,7 +43169,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B273" s="4"/>
       <c r="D273" t="str" cm="1">
         <f t="array" aca="1" ref="D273" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C273))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C273))=1), "C", "")</f>
         <v/>
@@ -43461,7 +43191,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B274" s="4"/>
       <c r="D274" t="str" cm="1">
         <f t="array" aca="1" ref="D274" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C274))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C274))=1), "C", "")</f>
         <v/>
@@ -43484,7 +43213,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B275" s="4"/>
       <c r="D275" t="str" cm="1">
         <f t="array" aca="1" ref="D275" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C275))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C275))=1), "C", "")</f>
         <v/>
@@ -43507,7 +43235,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B276" s="4"/>
       <c r="D276" t="str" cm="1">
         <f t="array" aca="1" ref="D276" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C276))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C276))=1), "C", "")</f>
         <v/>
@@ -43530,7 +43257,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B277" s="4"/>
       <c r="D277" t="str" cm="1">
         <f t="array" aca="1" ref="D277" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C277))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C277))=1), "C", "")</f>
         <v/>
@@ -43553,7 +43279,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B278" s="4"/>
       <c r="D278" t="str" cm="1">
         <f t="array" aca="1" ref="D278" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C278))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C278))=1), "C", "")</f>
         <v/>
@@ -43576,7 +43301,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B279" s="4"/>
       <c r="D279" t="str" cm="1">
         <f t="array" aca="1" ref="D279" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C279))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C279))=1), "C", "")</f>
         <v/>
@@ -43599,7 +43323,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B280" s="4"/>
       <c r="D280" t="str" cm="1">
         <f t="array" aca="1" ref="D280" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C280))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C280))=1), "C", "")</f>
         <v/>
@@ -43622,7 +43345,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B281" s="4"/>
       <c r="D281" t="str" cm="1">
         <f t="array" aca="1" ref="D281" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C281))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C281))=1), "C", "")</f>
         <v/>
@@ -43645,7 +43367,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B282" s="4"/>
       <c r="D282" t="str" cm="1">
         <f t="array" aca="1" ref="D282" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C282))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C282))=1), "C", "")</f>
         <v/>
@@ -43668,7 +43389,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B283" s="4"/>
       <c r="D283" t="str" cm="1">
         <f t="array" aca="1" ref="D283" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C283))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C283))=1), "C", "")</f>
         <v/>
@@ -43691,7 +43411,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B284" s="4"/>
       <c r="D284" t="str" cm="1">
         <f t="array" aca="1" ref="D284" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C284))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C284))=1), "C", "")</f>
         <v/>
@@ -43714,7 +43433,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B285" s="4"/>
       <c r="D285" t="str" cm="1">
         <f t="array" aca="1" ref="D285" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C285))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C285))=1), "C", "")</f>
         <v/>
@@ -43737,7 +43455,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B286" s="4"/>
       <c r="D286" t="str" cm="1">
         <f t="array" aca="1" ref="D286" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C286))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C286))=1), "C", "")</f>
         <v/>
@@ -43760,7 +43477,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B287" s="4"/>
       <c r="D287" t="str" cm="1">
         <f t="array" aca="1" ref="D287" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C287))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C287))=1), "C", "")</f>
         <v/>
@@ -43783,7 +43499,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B288" s="4"/>
       <c r="D288" t="str" cm="1">
         <f t="array" aca="1" ref="D288" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C288))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C288))=1), "C", "")</f>
         <v/>
@@ -43806,7 +43521,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B289" s="4"/>
       <c r="D289" t="str" cm="1">
         <f t="array" aca="1" ref="D289" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C289))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C289))=1), "C", "")</f>
         <v/>
@@ -43829,7 +43543,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B290" s="4"/>
       <c r="D290" t="str" cm="1">
         <f t="array" aca="1" ref="D290" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C290))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C290))=1), "C", "")</f>
         <v/>
@@ -43852,7 +43565,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B291" s="4"/>
       <c r="D291" t="str" cm="1">
         <f t="array" aca="1" ref="D291" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C291))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C291))=1), "C", "")</f>
         <v/>
@@ -43875,7 +43587,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B292" s="4"/>
       <c r="D292" t="str" cm="1">
         <f t="array" aca="1" ref="D292" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C292))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C292))=1), "C", "")</f>
         <v/>
@@ -43898,7 +43609,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B293" s="4"/>
       <c r="D293" t="str" cm="1">
         <f t="array" aca="1" ref="D293" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C293))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C293))=1), "C", "")</f>
         <v/>
@@ -43921,7 +43631,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B294" s="4"/>
       <c r="D294" t="str" cm="1">
         <f t="array" aca="1" ref="D294" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C294))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C294))=1), "C", "")</f>
         <v/>
@@ -43944,7 +43653,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B295" s="4"/>
       <c r="D295" t="str" cm="1">
         <f t="array" aca="1" ref="D295" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C295))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C295))=1), "C", "")</f>
         <v/>
@@ -43967,7 +43675,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B296" s="4"/>
       <c r="D296" t="str" cm="1">
         <f t="array" aca="1" ref="D296" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C296))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C296))=1), "C", "")</f>
         <v/>
@@ -43990,7 +43697,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B297" s="4"/>
       <c r="D297" t="str" cm="1">
         <f t="array" aca="1" ref="D297" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C297))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C297))=1), "C", "")</f>
         <v/>
@@ -44013,7 +43719,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B298" s="4"/>
       <c r="D298" t="str" cm="1">
         <f t="array" aca="1" ref="D298" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C298))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C298))=1), "C", "")</f>
         <v/>
@@ -44036,7 +43741,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B299" s="4"/>
       <c r="D299" t="str" cm="1">
         <f t="array" aca="1" ref="D299" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C299))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C299))=1), "C", "")</f>
         <v/>
@@ -44059,7 +43763,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B300" s="4"/>
       <c r="D300" t="str" cm="1">
         <f t="array" aca="1" ref="D300" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C300))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C300))=1), "C", "")</f>
         <v/>
@@ -44082,7 +43785,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B301" s="4"/>
       <c r="D301" t="str" cm="1">
         <f t="array" aca="1" ref="D301" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C301))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C301))=1), "C", "")</f>
         <v/>
@@ -44105,7 +43807,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B302" s="4"/>
       <c r="D302" t="str" cm="1">
         <f t="array" aca="1" ref="D302" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C302))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C302))=1), "C", "")</f>
         <v/>
@@ -44128,7 +43829,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B303" s="4"/>
       <c r="D303" t="str" cm="1">
         <f t="array" aca="1" ref="D303" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C303))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C303))=1), "C", "")</f>
         <v/>
@@ -44151,7 +43851,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B304" s="4"/>
       <c r="D304" t="str" cm="1">
         <f t="array" aca="1" ref="D304" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C304))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C304))=1), "C", "")</f>
         <v/>
@@ -44174,7 +43873,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B305" s="4"/>
       <c r="D305" t="str" cm="1">
         <f t="array" aca="1" ref="D305" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C305))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C305))=1), "C", "")</f>
         <v/>
@@ -44197,7 +43895,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B306" s="4"/>
       <c r="D306" t="str" cm="1">
         <f t="array" aca="1" ref="D306" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C306))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C306))=1), "C", "")</f>
         <v/>
@@ -44220,7 +43917,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B307" s="4"/>
       <c r="D307" t="str" cm="1">
         <f t="array" aca="1" ref="D307" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C307))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C307))=1), "C", "")</f>
         <v/>
@@ -44243,7 +43939,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B308" s="4"/>
       <c r="D308" t="str" cm="1">
         <f t="array" aca="1" ref="D308" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C308))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C308))=1), "C", "")</f>
         <v/>
@@ -44266,7 +43961,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B309" s="4"/>
       <c r="D309" t="str" cm="1">
         <f t="array" aca="1" ref="D309" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C309))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C309))=1), "C", "")</f>
         <v/>
@@ -44289,7 +43983,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B310" s="4"/>
       <c r="D310" t="str" cm="1">
         <f t="array" aca="1" ref="D310" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C310))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C310))=1), "C", "")</f>
         <v/>
@@ -44312,7 +44005,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B311" s="4"/>
       <c r="D311" t="str" cm="1">
         <f t="array" aca="1" ref="D311" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C311))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C311))=1), "C", "")</f>
         <v/>
@@ -44335,7 +44027,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B312" s="4"/>
       <c r="D312" t="str" cm="1">
         <f t="array" aca="1" ref="D312" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C312))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C312))=1), "C", "")</f>
         <v/>
@@ -44358,7 +44049,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B313" s="4"/>
       <c r="D313" t="str" cm="1">
         <f t="array" aca="1" ref="D313" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C313))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C313))=1), "C", "")</f>
         <v/>
@@ -44381,7 +44071,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B314" s="4"/>
       <c r="D314" t="str" cm="1">
         <f t="array" aca="1" ref="D314" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C314))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C314))=1), "C", "")</f>
         <v/>
@@ -44404,7 +44093,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B315" s="4"/>
       <c r="D315" t="str" cm="1">
         <f t="array" aca="1" ref="D315" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C315))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C315))=1), "C", "")</f>
         <v/>
@@ -44427,7 +44115,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B316" s="4"/>
       <c r="D316" t="str" cm="1">
         <f t="array" aca="1" ref="D316" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C316))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C316))=1), "C", "")</f>
         <v/>
@@ -44450,7 +44137,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B317" s="4"/>
       <c r="D317" t="str" cm="1">
         <f t="array" aca="1" ref="D317" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C317))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C317))=1), "C", "")</f>
         <v/>
@@ -44473,7 +44159,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B318" s="4"/>
       <c r="D318" t="str" cm="1">
         <f t="array" aca="1" ref="D318" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C318))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C318))=1), "C", "")</f>
         <v/>
@@ -44496,7 +44181,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B319" s="4"/>
       <c r="D319" t="str" cm="1">
         <f t="array" aca="1" ref="D319" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C319))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C319))=1), "C", "")</f>
         <v/>
@@ -44519,7 +44203,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B320" s="4"/>
       <c r="D320" t="str" cm="1">
         <f t="array" aca="1" ref="D320" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C320))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C320))=1), "C", "")</f>
         <v/>
@@ -44542,7 +44225,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B321" s="4"/>
       <c r="D321" t="str" cm="1">
         <f t="array" aca="1" ref="D321" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C321))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C321))=1), "C", "")</f>
         <v/>
@@ -44565,7 +44247,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B322" s="4"/>
       <c r="D322" t="str" cm="1">
         <f t="array" aca="1" ref="D322" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C322))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C322))=1), "C", "")</f>
         <v/>
@@ -44588,7 +44269,6 @@
         <f t="shared" ref="A323:A386" ca="1" si="12">IF(AND(C323&lt;&gt;"",D323&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D323),"_"),C323),"")</f>
         <v/>
       </c>
-      <c r="B323" s="4"/>
       <c r="D323" t="str" cm="1">
         <f t="array" aca="1" ref="D323" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C323))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C323))=1), "C", "")</f>
         <v/>
@@ -44611,7 +44291,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B324" s="4"/>
       <c r="D324" t="str" cm="1">
         <f t="array" aca="1" ref="D324" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C324))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C324))=1), "C", "")</f>
         <v/>
@@ -44634,7 +44313,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B325" s="4"/>
       <c r="D325" t="str" cm="1">
         <f t="array" aca="1" ref="D325" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C325))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C325))=1), "C", "")</f>
         <v/>
@@ -44657,7 +44335,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B326" s="4"/>
       <c r="D326" t="str" cm="1">
         <f t="array" aca="1" ref="D326" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C326))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C326))=1), "C", "")</f>
         <v/>
@@ -44680,7 +44357,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B327" s="4"/>
       <c r="D327" t="str" cm="1">
         <f t="array" aca="1" ref="D327" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C327))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C327))=1), "C", "")</f>
         <v/>
@@ -44703,7 +44379,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B328" s="4"/>
       <c r="D328" t="str" cm="1">
         <f t="array" aca="1" ref="D328" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C328))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C328))=1), "C", "")</f>
         <v/>
@@ -44726,7 +44401,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B329" s="4"/>
       <c r="D329" t="str" cm="1">
         <f t="array" aca="1" ref="D329" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C329))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C329))=1), "C", "")</f>
         <v/>
@@ -44749,7 +44423,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B330" s="4"/>
       <c r="D330" t="str" cm="1">
         <f t="array" aca="1" ref="D330" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C330))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C330))=1), "C", "")</f>
         <v/>
@@ -44772,7 +44445,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B331" s="4"/>
       <c r="D331" t="str" cm="1">
         <f t="array" aca="1" ref="D331" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C331))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C331))=1), "C", "")</f>
         <v/>
@@ -44795,7 +44467,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B332" s="4"/>
       <c r="D332" t="str" cm="1">
         <f t="array" aca="1" ref="D332" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C332))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C332))=1), "C", "")</f>
         <v/>
@@ -44818,7 +44489,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B333" s="4"/>
       <c r="D333" t="str" cm="1">
         <f t="array" aca="1" ref="D333" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C333))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C333))=1), "C", "")</f>
         <v/>
@@ -44841,7 +44511,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B334" s="4"/>
       <c r="D334" t="str" cm="1">
         <f t="array" aca="1" ref="D334" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C334))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C334))=1), "C", "")</f>
         <v/>
@@ -44864,7 +44533,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B335" s="4"/>
       <c r="D335" t="str" cm="1">
         <f t="array" aca="1" ref="D335" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C335))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C335))=1), "C", "")</f>
         <v/>
@@ -44887,7 +44555,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B336" s="4"/>
       <c r="D336" t="str" cm="1">
         <f t="array" aca="1" ref="D336" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C336))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C336))=1), "C", "")</f>
         <v/>
@@ -44910,7 +44577,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B337" s="4"/>
       <c r="D337" t="str" cm="1">
         <f t="array" aca="1" ref="D337" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C337))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C337))=1), "C", "")</f>
         <v/>
@@ -44933,7 +44599,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B338" s="4"/>
       <c r="D338" t="str" cm="1">
         <f t="array" aca="1" ref="D338" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C338))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C338))=1), "C", "")</f>
         <v/>
@@ -44956,7 +44621,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B339" s="4"/>
       <c r="D339" t="str" cm="1">
         <f t="array" aca="1" ref="D339" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C339))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C339))=1), "C", "")</f>
         <v/>
@@ -44979,7 +44643,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B340" s="4"/>
       <c r="D340" t="str" cm="1">
         <f t="array" aca="1" ref="D340" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C340))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C340))=1), "C", "")</f>
         <v/>
@@ -45002,7 +44665,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B341" s="4"/>
       <c r="D341" t="str" cm="1">
         <f t="array" aca="1" ref="D341" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C341))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C341))=1), "C", "")</f>
         <v/>
@@ -45025,7 +44687,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B342" s="4"/>
       <c r="D342" t="str" cm="1">
         <f t="array" aca="1" ref="D342" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C342))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C342))=1), "C", "")</f>
         <v/>
@@ -45048,7 +44709,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B343" s="4"/>
       <c r="D343" t="str" cm="1">
         <f t="array" aca="1" ref="D343" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C343))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C343))=1), "C", "")</f>
         <v/>
@@ -45071,7 +44731,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B344" s="4"/>
       <c r="D344" t="str" cm="1">
         <f t="array" aca="1" ref="D344" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C344))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C344))=1), "C", "")</f>
         <v/>
@@ -45094,7 +44753,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B345" s="4"/>
       <c r="D345" t="str" cm="1">
         <f t="array" aca="1" ref="D345" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C345))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C345))=1), "C", "")</f>
         <v/>
@@ -45117,7 +44775,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B346" s="4"/>
       <c r="D346" t="str" cm="1">
         <f t="array" aca="1" ref="D346" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C346))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C346))=1), "C", "")</f>
         <v/>
@@ -45140,7 +44797,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B347" s="4"/>
       <c r="D347" t="str" cm="1">
         <f t="array" aca="1" ref="D347" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C347))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C347))=1), "C", "")</f>
         <v/>
@@ -45163,7 +44819,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B348" s="4"/>
       <c r="D348" t="str" cm="1">
         <f t="array" aca="1" ref="D348" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C348))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C348))=1), "C", "")</f>
         <v/>
@@ -45186,7 +44841,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B349" s="4"/>
       <c r="D349" t="str" cm="1">
         <f t="array" aca="1" ref="D349" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C349))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C349))=1), "C", "")</f>
         <v/>
@@ -45209,7 +44863,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B350" s="4"/>
       <c r="D350" t="str" cm="1">
         <f t="array" aca="1" ref="D350" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C350))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C350))=1), "C", "")</f>
         <v/>
@@ -45232,7 +44885,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B351" s="4"/>
       <c r="D351" t="str" cm="1">
         <f t="array" aca="1" ref="D351" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C351))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C351))=1), "C", "")</f>
         <v/>
@@ -45255,7 +44907,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B352" s="4"/>
       <c r="D352" t="str" cm="1">
         <f t="array" aca="1" ref="D352" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C352))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C352))=1), "C", "")</f>
         <v/>
@@ -45278,7 +44929,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B353" s="4"/>
       <c r="D353" t="str" cm="1">
         <f t="array" aca="1" ref="D353" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C353))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C353))=1), "C", "")</f>
         <v/>
@@ -45301,7 +44951,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B354" s="4"/>
       <c r="D354" t="str" cm="1">
         <f t="array" aca="1" ref="D354" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C354))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C354))=1), "C", "")</f>
         <v/>
@@ -45324,7 +44973,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B355" s="4"/>
       <c r="D355" t="str" cm="1">
         <f t="array" aca="1" ref="D355" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C355))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C355))=1), "C", "")</f>
         <v/>
@@ -45347,7 +44995,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B356" s="4"/>
       <c r="D356" t="str" cm="1">
         <f t="array" aca="1" ref="D356" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C356))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C356))=1), "C", "")</f>
         <v/>
@@ -45370,7 +45017,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B357" s="4"/>
       <c r="D357" t="str" cm="1">
         <f t="array" aca="1" ref="D357" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C357))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C357))=1), "C", "")</f>
         <v/>
@@ -45393,7 +45039,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B358" s="4"/>
       <c r="D358" t="str" cm="1">
         <f t="array" aca="1" ref="D358" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C358))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C358))=1), "C", "")</f>
         <v/>
@@ -45416,7 +45061,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B359" s="4"/>
       <c r="D359" t="str" cm="1">
         <f t="array" aca="1" ref="D359" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C359))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C359))=1), "C", "")</f>
         <v/>
@@ -45439,7 +45083,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B360" s="4"/>
       <c r="D360" t="str" cm="1">
         <f t="array" aca="1" ref="D360" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C360))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C360))=1), "C", "")</f>
         <v/>
@@ -45462,7 +45105,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B361" s="4"/>
       <c r="D361" t="str" cm="1">
         <f t="array" aca="1" ref="D361" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C361))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C361))=1), "C", "")</f>
         <v/>
@@ -45485,7 +45127,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B362" s="4"/>
       <c r="D362" t="str" cm="1">
         <f t="array" aca="1" ref="D362" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C362))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C362))=1), "C", "")</f>
         <v/>
@@ -45508,7 +45149,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B363" s="4"/>
       <c r="D363" t="str" cm="1">
         <f t="array" aca="1" ref="D363" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C363))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C363))=1), "C", "")</f>
         <v/>
@@ -45531,7 +45171,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B364" s="4"/>
       <c r="D364" t="str" cm="1">
         <f t="array" aca="1" ref="D364" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C364))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C364))=1), "C", "")</f>
         <v/>
@@ -45554,7 +45193,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B365" s="4"/>
       <c r="D365" t="str" cm="1">
         <f t="array" aca="1" ref="D365" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C365))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C365))=1), "C", "")</f>
         <v/>
@@ -45577,7 +45215,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B366" s="4"/>
       <c r="D366" t="str" cm="1">
         <f t="array" aca="1" ref="D366" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C366))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C366))=1), "C", "")</f>
         <v/>
@@ -45600,7 +45237,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B367" s="4"/>
       <c r="D367" t="str" cm="1">
         <f t="array" aca="1" ref="D367" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C367))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C367))=1), "C", "")</f>
         <v/>
@@ -45623,7 +45259,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B368" s="4"/>
       <c r="D368" t="str" cm="1">
         <f t="array" aca="1" ref="D368" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C368))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C368))=1), "C", "")</f>
         <v/>
@@ -45646,7 +45281,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B369" s="4"/>
       <c r="D369" t="str" cm="1">
         <f t="array" aca="1" ref="D369" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C369))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C369))=1), "C", "")</f>
         <v/>
@@ -45669,7 +45303,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B370" s="4"/>
       <c r="D370" t="str" cm="1">
         <f t="array" aca="1" ref="D370" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C370))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C370))=1), "C", "")</f>
         <v/>
@@ -45692,7 +45325,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B371" s="4"/>
       <c r="D371" t="str" cm="1">
         <f t="array" aca="1" ref="D371" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C371))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C371))=1), "C", "")</f>
         <v/>
@@ -45715,7 +45347,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B372" s="4"/>
       <c r="D372" t="str" cm="1">
         <f t="array" aca="1" ref="D372" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C372))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C372))=1), "C", "")</f>
         <v/>
@@ -45738,7 +45369,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B373" s="4"/>
       <c r="D373" t="str" cm="1">
         <f t="array" aca="1" ref="D373" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C373))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C373))=1), "C", "")</f>
         <v/>
@@ -45761,7 +45391,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B374" s="4"/>
       <c r="D374" t="str" cm="1">
         <f t="array" aca="1" ref="D374" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C374))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C374))=1), "C", "")</f>
         <v/>
@@ -45784,7 +45413,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B375" s="4"/>
       <c r="D375" t="str" cm="1">
         <f t="array" aca="1" ref="D375" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C375))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C375))=1), "C", "")</f>
         <v/>
@@ -45807,7 +45435,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B376" s="4"/>
       <c r="D376" t="str" cm="1">
         <f t="array" aca="1" ref="D376" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C376))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C376))=1), "C", "")</f>
         <v/>
@@ -45830,7 +45457,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B377" s="4"/>
       <c r="D377" t="str" cm="1">
         <f t="array" aca="1" ref="D377" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C377))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C377))=1), "C", "")</f>
         <v/>
@@ -45853,7 +45479,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B378" s="4"/>
       <c r="D378" t="str" cm="1">
         <f t="array" aca="1" ref="D378" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C378))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C378))=1), "C", "")</f>
         <v/>
@@ -45876,7 +45501,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B379" s="4"/>
       <c r="D379" t="str" cm="1">
         <f t="array" aca="1" ref="D379" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C379))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C379))=1), "C", "")</f>
         <v/>
@@ -45899,7 +45523,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B380" s="4"/>
       <c r="D380" t="str" cm="1">
         <f t="array" aca="1" ref="D380" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C380))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C380))=1), "C", "")</f>
         <v/>
@@ -45922,7 +45545,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B381" s="4"/>
       <c r="D381" t="str" cm="1">
         <f t="array" aca="1" ref="D381" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C381))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C381))=1), "C", "")</f>
         <v/>
@@ -45945,7 +45567,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B382" s="4"/>
       <c r="D382" t="str" cm="1">
         <f t="array" aca="1" ref="D382" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C382))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C382))=1), "C", "")</f>
         <v/>
@@ -45968,7 +45589,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B383" s="4"/>
       <c r="D383" t="str" cm="1">
         <f t="array" aca="1" ref="D383" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C383))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C383))=1), "C", "")</f>
         <v/>
@@ -45991,7 +45611,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B384" s="4"/>
       <c r="D384" t="str" cm="1">
         <f t="array" aca="1" ref="D384" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C384))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C384))=1), "C", "")</f>
         <v/>
@@ -46014,7 +45633,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B385" s="4"/>
       <c r="D385" t="str" cm="1">
         <f t="array" aca="1" ref="D385" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C385))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C385))=1), "C", "")</f>
         <v/>
@@ -46037,7 +45655,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B386" s="4"/>
       <c r="D386" t="str" cm="1">
         <f t="array" aca="1" ref="D386" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C386))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C386))=1), "C", "")</f>
         <v/>
@@ -46060,7 +45677,6 @@
         <f t="shared" ref="A387:A450" ca="1" si="16">IF(AND(C387&lt;&gt;"",D387&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D387),"_"),C387),"")</f>
         <v/>
       </c>
-      <c r="B387" s="4"/>
       <c r="D387" t="str" cm="1">
         <f t="array" aca="1" ref="D387" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C387))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C387))=1), "C", "")</f>
         <v/>
@@ -46083,7 +45699,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B388" s="4"/>
       <c r="D388" t="str" cm="1">
         <f t="array" aca="1" ref="D388" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C388))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C388))=1), "C", "")</f>
         <v/>
@@ -46106,7 +45721,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B389" s="4"/>
       <c r="D389" t="str" cm="1">
         <f t="array" aca="1" ref="D389" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C389))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C389))=1), "C", "")</f>
         <v/>
@@ -46129,7 +45743,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B390" s="4"/>
       <c r="D390" t="str" cm="1">
         <f t="array" aca="1" ref="D390" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C390))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C390))=1), "C", "")</f>
         <v/>
@@ -46152,7 +45765,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B391" s="4"/>
       <c r="D391" t="str" cm="1">
         <f t="array" aca="1" ref="D391" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C391))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C391))=1), "C", "")</f>
         <v/>
@@ -46175,7 +45787,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B392" s="4"/>
       <c r="D392" t="str" cm="1">
         <f t="array" aca="1" ref="D392" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C392))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C392))=1), "C", "")</f>
         <v/>
@@ -46198,7 +45809,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B393" s="4"/>
       <c r="D393" t="str" cm="1">
         <f t="array" aca="1" ref="D393" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C393))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C393))=1), "C", "")</f>
         <v/>
@@ -46221,7 +45831,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B394" s="4"/>
       <c r="D394" t="str" cm="1">
         <f t="array" aca="1" ref="D394" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C394))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C394))=1), "C", "")</f>
         <v/>
@@ -46244,7 +45853,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B395" s="4"/>
       <c r="D395" t="str" cm="1">
         <f t="array" aca="1" ref="D395" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C395))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C395))=1), "C", "")</f>
         <v/>
@@ -46267,7 +45875,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B396" s="4"/>
       <c r="D396" t="str" cm="1">
         <f t="array" aca="1" ref="D396" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C396))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C396))=1), "C", "")</f>
         <v/>
@@ -46290,7 +45897,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B397" s="4"/>
       <c r="D397" t="str" cm="1">
         <f t="array" aca="1" ref="D397" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C397))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C397))=1), "C", "")</f>
         <v/>
@@ -46313,7 +45919,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B398" s="4"/>
       <c r="D398" t="str" cm="1">
         <f t="array" aca="1" ref="D398" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C398))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C398))=1), "C", "")</f>
         <v/>
@@ -46336,7 +45941,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B399" s="4"/>
       <c r="D399" t="str" cm="1">
         <f t="array" aca="1" ref="D399" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C399))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C399))=1), "C", "")</f>
         <v/>
@@ -46359,7 +45963,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B400" s="4"/>
       <c r="D400" t="str" cm="1">
         <f t="array" aca="1" ref="D400" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C400))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C400))=1), "C", "")</f>
         <v/>
@@ -46382,7 +45985,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B401" s="4"/>
       <c r="D401" t="str" cm="1">
         <f t="array" aca="1" ref="D401" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C401))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C401))=1), "C", "")</f>
         <v/>
@@ -46405,7 +46007,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B402" s="4"/>
       <c r="D402" t="str" cm="1">
         <f t="array" aca="1" ref="D402" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C402))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C402))=1), "C", "")</f>
         <v/>
@@ -46428,7 +46029,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B403" s="4"/>
       <c r="D403" t="str" cm="1">
         <f t="array" aca="1" ref="D403" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C403))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C403))=1), "C", "")</f>
         <v/>
@@ -46451,7 +46051,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B404" s="4"/>
       <c r="D404" t="str" cm="1">
         <f t="array" aca="1" ref="D404" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C404))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C404))=1), "C", "")</f>
         <v/>
@@ -46474,7 +46073,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B405" s="4"/>
       <c r="D405" t="str" cm="1">
         <f t="array" aca="1" ref="D405" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C405))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C405))=1), "C", "")</f>
         <v/>
@@ -46497,7 +46095,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B406" s="4"/>
       <c r="D406" t="str" cm="1">
         <f t="array" aca="1" ref="D406" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C406))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C406))=1), "C", "")</f>
         <v/>
@@ -46520,7 +46117,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B407" s="4"/>
       <c r="D407" t="str" cm="1">
         <f t="array" aca="1" ref="D407" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C407))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C407))=1), "C", "")</f>
         <v/>
@@ -46543,7 +46139,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B408" s="4"/>
       <c r="D408" t="str" cm="1">
         <f t="array" aca="1" ref="D408" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C408))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C408))=1), "C", "")</f>
         <v/>
@@ -46566,7 +46161,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B409" s="4"/>
       <c r="D409" t="str" cm="1">
         <f t="array" aca="1" ref="D409" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C409))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C409))=1), "C", "")</f>
         <v/>
@@ -46589,7 +46183,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B410" s="4"/>
       <c r="D410" t="str" cm="1">
         <f t="array" aca="1" ref="D410" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C410))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C410))=1), "C", "")</f>
         <v/>
@@ -46612,7 +46205,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B411" s="4"/>
       <c r="D411" t="str" cm="1">
         <f t="array" aca="1" ref="D411" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C411))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C411))=1), "C", "")</f>
         <v/>
@@ -46635,7 +46227,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B412" s="4"/>
       <c r="D412" t="str" cm="1">
         <f t="array" aca="1" ref="D412" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C412))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C412))=1), "C", "")</f>
         <v/>
@@ -46658,7 +46249,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B413" s="4"/>
       <c r="D413" t="str" cm="1">
         <f t="array" aca="1" ref="D413" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C413))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C413))=1), "C", "")</f>
         <v/>
@@ -46681,7 +46271,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B414" s="4"/>
       <c r="D414" t="str" cm="1">
         <f t="array" aca="1" ref="D414" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C414))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C414))=1), "C", "")</f>
         <v/>
@@ -46704,7 +46293,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B415" s="4"/>
       <c r="D415" t="str" cm="1">
         <f t="array" aca="1" ref="D415" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C415))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C415))=1), "C", "")</f>
         <v/>
@@ -46727,7 +46315,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B416" s="4"/>
       <c r="D416" t="str" cm="1">
         <f t="array" aca="1" ref="D416" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C416))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C416))=1), "C", "")</f>
         <v/>
@@ -46750,7 +46337,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B417" s="4"/>
       <c r="D417" t="str" cm="1">
         <f t="array" aca="1" ref="D417" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C417))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C417))=1), "C", "")</f>
         <v/>
@@ -46773,7 +46359,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B418" s="4"/>
       <c r="D418" t="str" cm="1">
         <f t="array" aca="1" ref="D418" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C418))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C418))=1), "C", "")</f>
         <v/>
@@ -46796,7 +46381,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B419" s="4"/>
       <c r="D419" t="str" cm="1">
         <f t="array" aca="1" ref="D419" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C419))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C419))=1), "C", "")</f>
         <v/>
@@ -46819,7 +46403,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B420" s="4"/>
       <c r="D420" t="str" cm="1">
         <f t="array" aca="1" ref="D420" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C420))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C420))=1), "C", "")</f>
         <v/>
@@ -46842,7 +46425,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B421" s="4"/>
       <c r="D421" t="str" cm="1">
         <f t="array" aca="1" ref="D421" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C421))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C421))=1), "C", "")</f>
         <v/>
@@ -46865,7 +46447,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B422" s="4"/>
       <c r="D422" t="str" cm="1">
         <f t="array" aca="1" ref="D422" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C422))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C422))=1), "C", "")</f>
         <v/>
@@ -46888,7 +46469,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B423" s="4"/>
       <c r="D423" t="str" cm="1">
         <f t="array" aca="1" ref="D423" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C423))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C423))=1), "C", "")</f>
         <v/>
@@ -46911,7 +46491,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B424" s="4"/>
       <c r="D424" t="str" cm="1">
         <f t="array" aca="1" ref="D424" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C424))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C424))=1), "C", "")</f>
         <v/>
@@ -46934,7 +46513,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B425" s="4"/>
       <c r="D425" t="str" cm="1">
         <f t="array" aca="1" ref="D425" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C425))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C425))=1), "C", "")</f>
         <v/>
@@ -46957,7 +46535,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B426" s="4"/>
       <c r="D426" t="str" cm="1">
         <f t="array" aca="1" ref="D426" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C426))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C426))=1), "C", "")</f>
         <v/>
@@ -46980,7 +46557,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B427" s="4"/>
       <c r="D427" t="str" cm="1">
         <f t="array" aca="1" ref="D427" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C427))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C427))=1), "C", "")</f>
         <v/>
@@ -47003,7 +46579,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B428" s="4"/>
       <c r="D428" t="str" cm="1">
         <f t="array" aca="1" ref="D428" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C428))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C428))=1), "C", "")</f>
         <v/>
@@ -47026,7 +46601,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B429" s="4"/>
       <c r="D429" t="str" cm="1">
         <f t="array" aca="1" ref="D429" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C429))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C429))=1), "C", "")</f>
         <v/>
@@ -47049,7 +46623,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B430" s="4"/>
       <c r="D430" t="str" cm="1">
         <f t="array" aca="1" ref="D430" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C430))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C430))=1), "C", "")</f>
         <v/>
@@ -47072,7 +46645,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B431" s="4"/>
       <c r="D431" t="str" cm="1">
         <f t="array" aca="1" ref="D431" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C431))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C431))=1), "C", "")</f>
         <v/>
@@ -47095,7 +46667,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B432" s="4"/>
       <c r="D432" t="str" cm="1">
         <f t="array" aca="1" ref="D432" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C432))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C432))=1), "C", "")</f>
         <v/>
@@ -47118,7 +46689,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B433" s="4"/>
       <c r="D433" t="str" cm="1">
         <f t="array" aca="1" ref="D433" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C433))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C433))=1), "C", "")</f>
         <v/>
@@ -47141,7 +46711,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B434" s="4"/>
       <c r="D434" t="str" cm="1">
         <f t="array" aca="1" ref="D434" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C434))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C434))=1), "C", "")</f>
         <v/>
@@ -47164,7 +46733,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B435" s="4"/>
       <c r="D435" t="str" cm="1">
         <f t="array" aca="1" ref="D435" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C435))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C435))=1), "C", "")</f>
         <v/>
@@ -47187,7 +46755,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B436" s="4"/>
       <c r="D436" t="str" cm="1">
         <f t="array" aca="1" ref="D436" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C436))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C436))=1), "C", "")</f>
         <v/>
@@ -47210,7 +46777,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B437" s="4"/>
       <c r="D437" t="str" cm="1">
         <f t="array" aca="1" ref="D437" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C437))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C437))=1), "C", "")</f>
         <v/>
@@ -47233,7 +46799,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B438" s="4"/>
       <c r="D438" t="str" cm="1">
         <f t="array" aca="1" ref="D438" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C438))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C438))=1), "C", "")</f>
         <v/>
@@ -47256,7 +46821,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B439" s="4"/>
       <c r="D439" t="str" cm="1">
         <f t="array" aca="1" ref="D439" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C439))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C439))=1), "C", "")</f>
         <v/>
@@ -47279,7 +46843,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B440" s="4"/>
       <c r="D440" t="str" cm="1">
         <f t="array" aca="1" ref="D440" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C440))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C440))=1), "C", "")</f>
         <v/>
@@ -47302,7 +46865,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B441" s="4"/>
       <c r="D441" t="str" cm="1">
         <f t="array" aca="1" ref="D441" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C441))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C441))=1), "C", "")</f>
         <v/>
@@ -47325,7 +46887,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B442" s="4"/>
       <c r="D442" t="str" cm="1">
         <f t="array" aca="1" ref="D442" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C442))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C442))=1), "C", "")</f>
         <v/>
@@ -47348,7 +46909,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B443" s="4"/>
       <c r="D443" t="str" cm="1">
         <f t="array" aca="1" ref="D443" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C443))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C443))=1), "C", "")</f>
         <v/>
@@ -47371,7 +46931,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B444" s="4"/>
       <c r="D444" t="str" cm="1">
         <f t="array" aca="1" ref="D444" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C444))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C444))=1), "C", "")</f>
         <v/>
@@ -47394,7 +46953,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B445" s="4"/>
       <c r="D445" t="str" cm="1">
         <f t="array" aca="1" ref="D445" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C445))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C445))=1), "C", "")</f>
         <v/>
@@ -47417,7 +46975,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B446" s="4"/>
       <c r="D446" t="str" cm="1">
         <f t="array" aca="1" ref="D446" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C446))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C446))=1), "C", "")</f>
         <v/>
@@ -47440,7 +46997,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B447" s="4"/>
       <c r="D447" t="str" cm="1">
         <f t="array" aca="1" ref="D447" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C447))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C447))=1), "C", "")</f>
         <v/>
@@ -47463,7 +47019,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B448" s="4"/>
       <c r="D448" t="str" cm="1">
         <f t="array" aca="1" ref="D448" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C448))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C448))=1), "C", "")</f>
         <v/>
@@ -47486,7 +47041,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B449" s="4"/>
       <c r="D449" t="str" cm="1">
         <f t="array" aca="1" ref="D449" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C449))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C449))=1), "C", "")</f>
         <v/>
@@ -47509,7 +47063,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B450" s="4"/>
       <c r="D450" t="str" cm="1">
         <f t="array" aca="1" ref="D450" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C450))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C450))=1), "C", "")</f>
         <v/>
@@ -47532,7 +47085,6 @@
         <f t="shared" ref="A451:A514" ca="1" si="20">IF(AND(C451&lt;&gt;"",D451&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D451),"_"),C451),"")</f>
         <v/>
       </c>
-      <c r="B451" s="4"/>
       <c r="D451" t="str" cm="1">
         <f t="array" aca="1" ref="D451" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C451))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C451))=1), "C", "")</f>
         <v/>
@@ -47555,7 +47107,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B452" s="4"/>
       <c r="D452" t="str" cm="1">
         <f t="array" aca="1" ref="D452" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C452))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C452))=1), "C", "")</f>
         <v/>
@@ -47578,7 +47129,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B453" s="4"/>
       <c r="D453" t="str" cm="1">
         <f t="array" aca="1" ref="D453" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C453))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C453))=1), "C", "")</f>
         <v/>
@@ -47601,7 +47151,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B454" s="4"/>
       <c r="D454" t="str" cm="1">
         <f t="array" aca="1" ref="D454" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C454))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C454))=1), "C", "")</f>
         <v/>
@@ -47624,7 +47173,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B455" s="4"/>
       <c r="D455" t="str" cm="1">
         <f t="array" aca="1" ref="D455" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C455))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C455))=1), "C", "")</f>
         <v/>
@@ -47647,7 +47195,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B456" s="4"/>
       <c r="D456" t="str" cm="1">
         <f t="array" aca="1" ref="D456" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C456))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C456))=1), "C", "")</f>
         <v/>
@@ -47670,7 +47217,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B457" s="4"/>
       <c r="D457" t="str" cm="1">
         <f t="array" aca="1" ref="D457" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C457))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C457))=1), "C", "")</f>
         <v/>
@@ -47693,7 +47239,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B458" s="4"/>
       <c r="D458" t="str" cm="1">
         <f t="array" aca="1" ref="D458" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C458))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C458))=1), "C", "")</f>
         <v/>
@@ -47716,7 +47261,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B459" s="4"/>
       <c r="D459" t="str" cm="1">
         <f t="array" aca="1" ref="D459" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C459))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C459))=1), "C", "")</f>
         <v/>
@@ -47739,7 +47283,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B460" s="4"/>
       <c r="D460" t="str" cm="1">
         <f t="array" aca="1" ref="D460" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C460))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C460))=1), "C", "")</f>
         <v/>
@@ -47762,7 +47305,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B461" s="4"/>
       <c r="D461" t="str" cm="1">
         <f t="array" aca="1" ref="D461" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C461))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C461))=1), "C", "")</f>
         <v/>
@@ -47785,7 +47327,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B462" s="4"/>
       <c r="D462" t="str" cm="1">
         <f t="array" aca="1" ref="D462" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C462))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C462))=1), "C", "")</f>
         <v/>
@@ -47808,7 +47349,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B463" s="4"/>
       <c r="D463" t="str" cm="1">
         <f t="array" aca="1" ref="D463" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C463))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C463))=1), "C", "")</f>
         <v/>
@@ -47831,7 +47371,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B464" s="4"/>
       <c r="D464" t="str" cm="1">
         <f t="array" aca="1" ref="D464" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C464))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C464))=1), "C", "")</f>
         <v/>
@@ -47854,7 +47393,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B465" s="4"/>
       <c r="D465" t="str" cm="1">
         <f t="array" aca="1" ref="D465" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C465))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C465))=1), "C", "")</f>
         <v/>
@@ -47877,7 +47415,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B466" s="4"/>
       <c r="D466" t="str" cm="1">
         <f t="array" aca="1" ref="D466" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C466))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C466))=1), "C", "")</f>
         <v/>
@@ -47900,7 +47437,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B467" s="4"/>
       <c r="D467" t="str" cm="1">
         <f t="array" aca="1" ref="D467" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C467))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C467))=1), "C", "")</f>
         <v/>
@@ -47923,7 +47459,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B468" s="4"/>
       <c r="D468" t="str" cm="1">
         <f t="array" aca="1" ref="D468" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C468))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C468))=1), "C", "")</f>
         <v/>
@@ -47946,7 +47481,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B469" s="4"/>
       <c r="D469" t="str" cm="1">
         <f t="array" aca="1" ref="D469" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C469))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C469))=1), "C", "")</f>
         <v/>
@@ -47969,7 +47503,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B470" s="4"/>
       <c r="D470" t="str" cm="1">
         <f t="array" aca="1" ref="D470" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C470))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C470))=1), "C", "")</f>
         <v/>
@@ -47992,7 +47525,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B471" s="4"/>
       <c r="D471" t="str" cm="1">
         <f t="array" aca="1" ref="D471" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C471))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C471))=1), "C", "")</f>
         <v/>
@@ -48015,7 +47547,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B472" s="4"/>
       <c r="D472" t="str" cm="1">
         <f t="array" aca="1" ref="D472" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C472))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C472))=1), "C", "")</f>
         <v/>
@@ -48038,7 +47569,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B473" s="4"/>
       <c r="D473" t="str" cm="1">
         <f t="array" aca="1" ref="D473" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C473))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C473))=1), "C", "")</f>
         <v/>
@@ -48061,7 +47591,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B474" s="4"/>
       <c r="D474" t="str" cm="1">
         <f t="array" aca="1" ref="D474" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C474))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C474))=1), "C", "")</f>
         <v/>
@@ -48084,7 +47613,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B475" s="4"/>
       <c r="D475" t="str" cm="1">
         <f t="array" aca="1" ref="D475" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C475))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C475))=1), "C", "")</f>
         <v/>
@@ -48107,7 +47635,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B476" s="4"/>
       <c r="D476" t="str" cm="1">
         <f t="array" aca="1" ref="D476" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C476))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C476))=1), "C", "")</f>
         <v/>
@@ -48130,7 +47657,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B477" s="4"/>
       <c r="D477" t="str" cm="1">
         <f t="array" aca="1" ref="D477" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C477))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C477))=1), "C", "")</f>
         <v/>
@@ -48153,7 +47679,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B478" s="4"/>
       <c r="D478" t="str" cm="1">
         <f t="array" aca="1" ref="D478" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C478))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C478))=1), "C", "")</f>
         <v/>
@@ -48176,7 +47701,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B479" s="4"/>
       <c r="D479" t="str" cm="1">
         <f t="array" aca="1" ref="D479" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C479))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C479))=1), "C", "")</f>
         <v/>
@@ -48199,7 +47723,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B480" s="4"/>
       <c r="D480" t="str" cm="1">
         <f t="array" aca="1" ref="D480" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C480))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C480))=1), "C", "")</f>
         <v/>
@@ -48222,7 +47745,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B481" s="4"/>
       <c r="D481" t="str" cm="1">
         <f t="array" aca="1" ref="D481" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C481))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C481))=1), "C", "")</f>
         <v/>
@@ -48245,7 +47767,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B482" s="4"/>
       <c r="D482" t="str" cm="1">
         <f t="array" aca="1" ref="D482" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C482))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C482))=1), "C", "")</f>
         <v/>
@@ -48268,7 +47789,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B483" s="4"/>
       <c r="D483" t="str" cm="1">
         <f t="array" aca="1" ref="D483" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C483))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C483))=1), "C", "")</f>
         <v/>
@@ -48291,7 +47811,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B484" s="4"/>
       <c r="D484" t="str" cm="1">
         <f t="array" aca="1" ref="D484" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C484))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C484))=1), "C", "")</f>
         <v/>
@@ -48314,7 +47833,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B485" s="4"/>
       <c r="D485" t="str" cm="1">
         <f t="array" aca="1" ref="D485" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C485))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C485))=1), "C", "")</f>
         <v/>
@@ -48337,7 +47855,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B486" s="4"/>
       <c r="D486" t="str" cm="1">
         <f t="array" aca="1" ref="D486" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C486))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C486))=1), "C", "")</f>
         <v/>
@@ -48360,7 +47877,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B487" s="4"/>
       <c r="D487" t="str" cm="1">
         <f t="array" aca="1" ref="D487" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C487))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C487))=1), "C", "")</f>
         <v/>
@@ -48383,7 +47899,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B488" s="4"/>
       <c r="D488" t="str" cm="1">
         <f t="array" aca="1" ref="D488" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C488))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C488))=1), "C", "")</f>
         <v/>
@@ -48406,7 +47921,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B489" s="4"/>
       <c r="D489" t="str" cm="1">
         <f t="array" aca="1" ref="D489" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C489))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C489))=1), "C", "")</f>
         <v/>
@@ -48429,7 +47943,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B490" s="4"/>
       <c r="D490" t="str" cm="1">
         <f t="array" aca="1" ref="D490" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C490))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C490))=1), "C", "")</f>
         <v/>
@@ -48452,7 +47965,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B491" s="4"/>
       <c r="D491" t="str" cm="1">
         <f t="array" aca="1" ref="D491" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C491))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C491))=1), "C", "")</f>
         <v/>
@@ -48475,7 +47987,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B492" s="4"/>
       <c r="D492" t="str" cm="1">
         <f t="array" aca="1" ref="D492" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C492))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C492))=1), "C", "")</f>
         <v/>
@@ -48498,7 +48009,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B493" s="4"/>
       <c r="D493" t="str" cm="1">
         <f t="array" aca="1" ref="D493" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C493))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C493))=1), "C", "")</f>
         <v/>
@@ -48521,7 +48031,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B494" s="4"/>
       <c r="D494" t="str" cm="1">
         <f t="array" aca="1" ref="D494" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C494))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C494))=1), "C", "")</f>
         <v/>
@@ -48544,7 +48053,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B495" s="4"/>
       <c r="D495" t="str" cm="1">
         <f t="array" aca="1" ref="D495" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C495))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C495))=1), "C", "")</f>
         <v/>
@@ -48567,7 +48075,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B496" s="4"/>
       <c r="D496" t="str" cm="1">
         <f t="array" aca="1" ref="D496" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C496))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C496))=1), "C", "")</f>
         <v/>
@@ -48590,7 +48097,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B497" s="4"/>
       <c r="D497" t="str" cm="1">
         <f t="array" aca="1" ref="D497" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C497))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C497))=1), "C", "")</f>
         <v/>
@@ -48613,7 +48119,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B498" s="4"/>
       <c r="D498" t="str" cm="1">
         <f t="array" aca="1" ref="D498" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C498))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C498))=1), "C", "")</f>
         <v/>
@@ -48636,7 +48141,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B499" s="4"/>
       <c r="D499" t="str" cm="1">
         <f t="array" aca="1" ref="D499" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C499))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C499))=1), "C", "")</f>
         <v/>
@@ -48659,7 +48163,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B500" s="4"/>
       <c r="D500" t="str" cm="1">
         <f t="array" aca="1" ref="D500" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C500))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C500))=1), "C", "")</f>
         <v/>
@@ -48682,7 +48185,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B501" s="4"/>
       <c r="D501" t="str" cm="1">
         <f t="array" aca="1" ref="D501" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C501))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C501))=1), "C", "")</f>
         <v/>
@@ -48705,7 +48207,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B502" s="4"/>
       <c r="D502" t="str" cm="1">
         <f t="array" aca="1" ref="D502" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C502))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C502))=1), "C", "")</f>
         <v/>
@@ -48728,7 +48229,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B503" s="4"/>
       <c r="D503" t="str" cm="1">
         <f t="array" aca="1" ref="D503" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C503))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C503))=1), "C", "")</f>
         <v/>
@@ -48751,7 +48251,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B504" s="4"/>
       <c r="D504" t="str" cm="1">
         <f t="array" aca="1" ref="D504" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C504))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C504))=1), "C", "")</f>
         <v/>
@@ -48774,7 +48273,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B505" s="4"/>
       <c r="D505" t="str" cm="1">
         <f t="array" aca="1" ref="D505" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C505))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C505))=1), "C", "")</f>
         <v/>
@@ -48797,7 +48295,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B506" s="4"/>
       <c r="D506" t="str" cm="1">
         <f t="array" aca="1" ref="D506" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C506))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C506))=1), "C", "")</f>
         <v/>
@@ -48820,7 +48317,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B507" s="4"/>
       <c r="D507" t="str" cm="1">
         <f t="array" aca="1" ref="D507" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C507))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C507))=1), "C", "")</f>
         <v/>
@@ -48843,7 +48339,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B508" s="4"/>
       <c r="D508" t="str" cm="1">
         <f t="array" aca="1" ref="D508" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C508))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C508))=1), "C", "")</f>
         <v/>
@@ -48866,7 +48361,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B509" s="4"/>
       <c r="D509" t="str" cm="1">
         <f t="array" aca="1" ref="D509" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C509))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C509))=1), "C", "")</f>
         <v/>
@@ -48889,7 +48383,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B510" s="4"/>
       <c r="D510" t="str" cm="1">
         <f t="array" aca="1" ref="D510" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C510))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C510))=1), "C", "")</f>
         <v/>
@@ -48912,7 +48405,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B511" s="4"/>
       <c r="D511" t="str" cm="1">
         <f t="array" aca="1" ref="D511" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C511))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C511))=1), "C", "")</f>
         <v/>
@@ -48935,7 +48427,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B512" s="4"/>
       <c r="D512" t="str" cm="1">
         <f t="array" aca="1" ref="D512" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C512))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C512))=1), "C", "")</f>
         <v/>
@@ -48958,7 +48449,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B513" s="4"/>
       <c r="D513" t="str" cm="1">
         <f t="array" aca="1" ref="D513" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C513))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C513))=1), "C", "")</f>
         <v/>
@@ -48981,7 +48471,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B514" s="4"/>
       <c r="D514" t="str" cm="1">
         <f t="array" aca="1" ref="D514" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C514))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C514))=1), "C", "")</f>
         <v/>
@@ -49004,7 +48493,6 @@
         <f t="shared" ref="A515:A578" ca="1" si="24">IF(AND(C515&lt;&gt;"",D515&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D515),"_"),C515),"")</f>
         <v/>
       </c>
-      <c r="B515" s="4"/>
       <c r="D515" t="str" cm="1">
         <f t="array" aca="1" ref="D515" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C515))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C515))=1), "C", "")</f>
         <v/>
@@ -49027,7 +48515,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B516" s="4"/>
       <c r="D516" t="str" cm="1">
         <f t="array" aca="1" ref="D516" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C516))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C516))=1), "C", "")</f>
         <v/>
@@ -49050,7 +48537,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B517" s="4"/>
       <c r="D517" t="str" cm="1">
         <f t="array" aca="1" ref="D517" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C517))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C517))=1), "C", "")</f>
         <v/>
@@ -49073,7 +48559,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B518" s="4"/>
       <c r="D518" t="str" cm="1">
         <f t="array" aca="1" ref="D518" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C518))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C518))=1), "C", "")</f>
         <v/>
@@ -49096,7 +48581,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B519" s="4"/>
       <c r="D519" t="str" cm="1">
         <f t="array" aca="1" ref="D519" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C519))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C519))=1), "C", "")</f>
         <v/>
@@ -49119,7 +48603,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B520" s="4"/>
       <c r="D520" t="str" cm="1">
         <f t="array" aca="1" ref="D520" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C520))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C520))=1), "C", "")</f>
         <v/>
@@ -49142,7 +48625,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B521" s="4"/>
       <c r="D521" t="str" cm="1">
         <f t="array" aca="1" ref="D521" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C521))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C521))=1), "C", "")</f>
         <v/>
@@ -49165,7 +48647,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B522" s="4"/>
       <c r="D522" t="str" cm="1">
         <f t="array" aca="1" ref="D522" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C522))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C522))=1), "C", "")</f>
         <v/>
@@ -49188,7 +48669,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B523" s="4"/>
       <c r="D523" t="str" cm="1">
         <f t="array" aca="1" ref="D523" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C523))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C523))=1), "C", "")</f>
         <v/>
@@ -49211,7 +48691,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B524" s="4"/>
       <c r="D524" t="str" cm="1">
         <f t="array" aca="1" ref="D524" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C524))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C524))=1), "C", "")</f>
         <v/>
@@ -49234,7 +48713,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B525" s="4"/>
       <c r="D525" t="str" cm="1">
         <f t="array" aca="1" ref="D525" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C525))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C525))=1), "C", "")</f>
         <v/>
@@ -49257,7 +48735,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B526" s="4"/>
       <c r="D526" t="str" cm="1">
         <f t="array" aca="1" ref="D526" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C526))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C526))=1), "C", "")</f>
         <v/>
@@ -49280,7 +48757,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B527" s="4"/>
       <c r="D527" t="str" cm="1">
         <f t="array" aca="1" ref="D527" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C527))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C527))=1), "C", "")</f>
         <v/>
@@ -49303,7 +48779,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B528" s="4"/>
       <c r="D528" t="str" cm="1">
         <f t="array" aca="1" ref="D528" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C528))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C528))=1), "C", "")</f>
         <v/>
@@ -49326,7 +48801,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B529" s="4"/>
       <c r="D529" t="str" cm="1">
         <f t="array" aca="1" ref="D529" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C529))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C529))=1), "C", "")</f>
         <v/>
@@ -49349,7 +48823,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B530" s="4"/>
       <c r="D530" t="str" cm="1">
         <f t="array" aca="1" ref="D530" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C530))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C530))=1), "C", "")</f>
         <v/>
@@ -49372,7 +48845,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B531" s="4"/>
       <c r="D531" t="str" cm="1">
         <f t="array" aca="1" ref="D531" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C531))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C531))=1), "C", "")</f>
         <v/>
@@ -49395,7 +48867,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B532" s="4"/>
       <c r="D532" t="str" cm="1">
         <f t="array" aca="1" ref="D532" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C532))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C532))=1), "C", "")</f>
         <v/>
@@ -49418,7 +48889,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B533" s="4"/>
       <c r="D533" t="str" cm="1">
         <f t="array" aca="1" ref="D533" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C533))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C533))=1), "C", "")</f>
         <v/>
@@ -49441,7 +48911,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B534" s="4"/>
       <c r="D534" t="str" cm="1">
         <f t="array" aca="1" ref="D534" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C534))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C534))=1), "C", "")</f>
         <v/>
@@ -49464,7 +48933,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B535" s="4"/>
       <c r="D535" t="str" cm="1">
         <f t="array" aca="1" ref="D535" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C535))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C535))=1), "C", "")</f>
         <v/>
@@ -49487,7 +48955,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B536" s="4"/>
       <c r="D536" t="str" cm="1">
         <f t="array" aca="1" ref="D536" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C536))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C536))=1), "C", "")</f>
         <v/>
@@ -49510,7 +48977,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B537" s="4"/>
       <c r="D537" t="str" cm="1">
         <f t="array" aca="1" ref="D537" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C537))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C537))=1), "C", "")</f>
         <v/>
@@ -49533,7 +48999,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B538" s="4"/>
       <c r="D538" t="str" cm="1">
         <f t="array" aca="1" ref="D538" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C538))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C538))=1), "C", "")</f>
         <v/>
@@ -49556,7 +49021,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B539" s="4"/>
       <c r="D539" t="str" cm="1">
         <f t="array" aca="1" ref="D539" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C539))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C539))=1), "C", "")</f>
         <v/>
@@ -49579,7 +49043,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B540" s="4"/>
       <c r="D540" t="str" cm="1">
         <f t="array" aca="1" ref="D540" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C540))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C540))=1), "C", "")</f>
         <v/>
@@ -49602,7 +49065,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B541" s="4"/>
       <c r="D541" t="str" cm="1">
         <f t="array" aca="1" ref="D541" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C541))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C541))=1), "C", "")</f>
         <v/>
@@ -49625,7 +49087,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B542" s="4"/>
       <c r="D542" t="str" cm="1">
         <f t="array" aca="1" ref="D542" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C542))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C542))=1), "C", "")</f>
         <v/>
@@ -49648,7 +49109,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B543" s="4"/>
       <c r="D543" t="str" cm="1">
         <f t="array" aca="1" ref="D543" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C543))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C543))=1), "C", "")</f>
         <v/>
@@ -49671,7 +49131,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B544" s="4"/>
       <c r="D544" t="str" cm="1">
         <f t="array" aca="1" ref="D544" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C544))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C544))=1), "C", "")</f>
         <v/>
@@ -49694,7 +49153,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B545" s="4"/>
       <c r="D545" t="str" cm="1">
         <f t="array" aca="1" ref="D545" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C545))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C545))=1), "C", "")</f>
         <v/>
@@ -49717,7 +49175,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B546" s="4"/>
       <c r="D546" t="str" cm="1">
         <f t="array" aca="1" ref="D546" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C546))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C546))=1), "C", "")</f>
         <v/>
@@ -49740,7 +49197,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B547" s="4"/>
       <c r="D547" t="str" cm="1">
         <f t="array" aca="1" ref="D547" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C547))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C547))=1), "C", "")</f>
         <v/>
@@ -49763,7 +49219,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B548" s="4"/>
       <c r="D548" t="str" cm="1">
         <f t="array" aca="1" ref="D548" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C548))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C548))=1), "C", "")</f>
         <v/>
@@ -49786,7 +49241,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B549" s="4"/>
       <c r="D549" t="str" cm="1">
         <f t="array" aca="1" ref="D549" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C549))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C549))=1), "C", "")</f>
         <v/>
@@ -49809,7 +49263,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B550" s="4"/>
       <c r="D550" t="str" cm="1">
         <f t="array" aca="1" ref="D550" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C550))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C550))=1), "C", "")</f>
         <v/>
@@ -49832,7 +49285,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B551" s="4"/>
       <c r="D551" t="str" cm="1">
         <f t="array" aca="1" ref="D551" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C551))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C551))=1), "C", "")</f>
         <v/>
@@ -49855,7 +49307,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B552" s="4"/>
       <c r="D552" t="str" cm="1">
         <f t="array" aca="1" ref="D552" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C552))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C552))=1), "C", "")</f>
         <v/>
@@ -49878,7 +49329,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B553" s="4"/>
       <c r="D553" t="str" cm="1">
         <f t="array" aca="1" ref="D553" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C553))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C553))=1), "C", "")</f>
         <v/>
@@ -49901,7 +49351,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B554" s="4"/>
       <c r="D554" t="str" cm="1">
         <f t="array" aca="1" ref="D554" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C554))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C554))=1), "C", "")</f>
         <v/>
@@ -49924,7 +49373,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B555" s="4"/>
       <c r="D555" t="str" cm="1">
         <f t="array" aca="1" ref="D555" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C555))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C555))=1), "C", "")</f>
         <v/>
@@ -49947,7 +49395,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B556" s="4"/>
       <c r="D556" t="str" cm="1">
         <f t="array" aca="1" ref="D556" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C556))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C556))=1), "C", "")</f>
         <v/>
@@ -49970,7 +49417,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B557" s="4"/>
       <c r="D557" t="str" cm="1">
         <f t="array" aca="1" ref="D557" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C557))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C557))=1), "C", "")</f>
         <v/>
@@ -49993,7 +49439,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B558" s="4"/>
       <c r="D558" t="str" cm="1">
         <f t="array" aca="1" ref="D558" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C558))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C558))=1), "C", "")</f>
         <v/>
@@ -50016,7 +49461,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B559" s="4"/>
       <c r="D559" t="str" cm="1">
         <f t="array" aca="1" ref="D559" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C559))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C559))=1), "C", "")</f>
         <v/>
@@ -50039,7 +49483,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B560" s="4"/>
       <c r="D560" t="str" cm="1">
         <f t="array" aca="1" ref="D560" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C560))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C560))=1), "C", "")</f>
         <v/>
@@ -50062,7 +49505,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B561" s="4"/>
       <c r="D561" t="str" cm="1">
         <f t="array" aca="1" ref="D561" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C561))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C561))=1), "C", "")</f>
         <v/>
@@ -50085,7 +49527,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B562" s="4"/>
       <c r="D562" t="str" cm="1">
         <f t="array" aca="1" ref="D562" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C562))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C562))=1), "C", "")</f>
         <v/>
@@ -50108,7 +49549,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B563" s="4"/>
       <c r="D563" t="str" cm="1">
         <f t="array" aca="1" ref="D563" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C563))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C563))=1), "C", "")</f>
         <v/>
@@ -50131,7 +49571,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B564" s="4"/>
       <c r="D564" t="str" cm="1">
         <f t="array" aca="1" ref="D564" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C564))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C564))=1), "C", "")</f>
         <v/>
@@ -50154,7 +49593,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B565" s="4"/>
       <c r="D565" t="str" cm="1">
         <f t="array" aca="1" ref="D565" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C565))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C565))=1), "C", "")</f>
         <v/>
@@ -50177,7 +49615,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B566" s="4"/>
       <c r="D566" t="str" cm="1">
         <f t="array" aca="1" ref="D566" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C566))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C566))=1), "C", "")</f>
         <v/>
@@ -50200,7 +49637,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B567" s="4"/>
       <c r="D567" t="str" cm="1">
         <f t="array" aca="1" ref="D567" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C567))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C567))=1), "C", "")</f>
         <v/>
@@ -50223,7 +49659,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B568" s="4"/>
       <c r="D568" t="str" cm="1">
         <f t="array" aca="1" ref="D568" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C568))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C568))=1), "C", "")</f>
         <v/>
@@ -50246,7 +49681,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B569" s="4"/>
       <c r="D569" t="str" cm="1">
         <f t="array" aca="1" ref="D569" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C569))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C569))=1), "C", "")</f>
         <v/>
@@ -50269,7 +49703,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B570" s="4"/>
       <c r="D570" t="str" cm="1">
         <f t="array" aca="1" ref="D570" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C570))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C570))=1), "C", "")</f>
         <v/>
@@ -50292,7 +49725,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B571" s="4"/>
       <c r="D571" t="str" cm="1">
         <f t="array" aca="1" ref="D571" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C571))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C571))=1), "C", "")</f>
         <v/>
@@ -50315,7 +49747,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B572" s="4"/>
       <c r="D572" t="str" cm="1">
         <f t="array" aca="1" ref="D572" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C572))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C572))=1), "C", "")</f>
         <v/>
@@ -50338,7 +49769,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B573" s="4"/>
       <c r="D573" t="str" cm="1">
         <f t="array" aca="1" ref="D573" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C573))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C573))=1), "C", "")</f>
         <v/>
@@ -50361,7 +49791,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B574" s="4"/>
       <c r="D574" t="str" cm="1">
         <f t="array" aca="1" ref="D574" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C574))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C574))=1), "C", "")</f>
         <v/>
@@ -50384,7 +49813,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B575" s="4"/>
       <c r="D575" t="str" cm="1">
         <f t="array" aca="1" ref="D575" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C575))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C575))=1), "C", "")</f>
         <v/>
@@ -50407,7 +49835,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B576" s="4"/>
       <c r="D576" t="str" cm="1">
         <f t="array" aca="1" ref="D576" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C576))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C576))=1), "C", "")</f>
         <v/>
@@ -50430,7 +49857,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B577" s="4"/>
       <c r="D577" t="str" cm="1">
         <f t="array" aca="1" ref="D577" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C577))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C577))=1), "C", "")</f>
         <v/>
@@ -50453,7 +49879,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B578" s="4"/>
       <c r="D578" t="str" cm="1">
         <f t="array" aca="1" ref="D578" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C578))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C578))=1), "C", "")</f>
         <v/>
@@ -50476,7 +49901,6 @@
         <f t="shared" ref="A579:A642" ca="1" si="28">IF(AND(C579&lt;&gt;"",D579&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D579),"_"),C579),"")</f>
         <v/>
       </c>
-      <c r="B579" s="4"/>
       <c r="D579" t="str" cm="1">
         <f t="array" aca="1" ref="D579" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C579))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C579))=1), "C", "")</f>
         <v/>
@@ -50499,7 +49923,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B580" s="4"/>
       <c r="D580" t="str" cm="1">
         <f t="array" aca="1" ref="D580" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C580))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C580))=1), "C", "")</f>
         <v/>
@@ -50522,7 +49945,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B581" s="4"/>
       <c r="D581" t="str" cm="1">
         <f t="array" aca="1" ref="D581" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C581))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C581))=1), "C", "")</f>
         <v/>
@@ -50545,7 +49967,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B582" s="4"/>
       <c r="D582" t="str" cm="1">
         <f t="array" aca="1" ref="D582" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C582))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C582))=1), "C", "")</f>
         <v/>
@@ -50568,7 +49989,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B583" s="4"/>
       <c r="D583" t="str" cm="1">
         <f t="array" aca="1" ref="D583" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C583))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C583))=1), "C", "")</f>
         <v/>
@@ -50591,7 +50011,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B584" s="4"/>
       <c r="D584" t="str" cm="1">
         <f t="array" aca="1" ref="D584" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C584))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C584))=1), "C", "")</f>
         <v/>
@@ -50614,7 +50033,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B585" s="4"/>
       <c r="D585" t="str" cm="1">
         <f t="array" aca="1" ref="D585" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C585))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C585))=1), "C", "")</f>
         <v/>
@@ -50637,7 +50055,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B586" s="4"/>
       <c r="D586" t="str" cm="1">
         <f t="array" aca="1" ref="D586" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C586))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C586))=1), "C", "")</f>
         <v/>
@@ -50660,7 +50077,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B587" s="4"/>
       <c r="D587" t="str" cm="1">
         <f t="array" aca="1" ref="D587" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C587))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C587))=1), "C", "")</f>
         <v/>
@@ -50683,7 +50099,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B588" s="4"/>
       <c r="D588" t="str" cm="1">
         <f t="array" aca="1" ref="D588" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C588))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C588))=1), "C", "")</f>
         <v/>
@@ -50706,7 +50121,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B589" s="4"/>
       <c r="D589" t="str" cm="1">
         <f t="array" aca="1" ref="D589" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C589))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C589))=1), "C", "")</f>
         <v/>
@@ -50729,7 +50143,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B590" s="4"/>
       <c r="D590" t="str" cm="1">
         <f t="array" aca="1" ref="D590" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C590))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C590))=1), "C", "")</f>
         <v/>
@@ -50752,7 +50165,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B591" s="4"/>
       <c r="D591" t="str" cm="1">
         <f t="array" aca="1" ref="D591" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C591))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C591))=1), "C", "")</f>
         <v/>
@@ -50775,7 +50187,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B592" s="4"/>
       <c r="D592" t="str" cm="1">
         <f t="array" aca="1" ref="D592" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C592))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C592))=1), "C", "")</f>
         <v/>
@@ -50798,7 +50209,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B593" s="4"/>
       <c r="D593" t="str" cm="1">
         <f t="array" aca="1" ref="D593" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C593))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C593))=1), "C", "")</f>
         <v/>
@@ -50821,7 +50231,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B594" s="4"/>
       <c r="D594" t="str" cm="1">
         <f t="array" aca="1" ref="D594" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C594))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C594))=1), "C", "")</f>
         <v/>
@@ -50844,7 +50253,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B595" s="4"/>
       <c r="D595" t="str" cm="1">
         <f t="array" aca="1" ref="D595" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C595))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C595))=1), "C", "")</f>
         <v/>
@@ -50867,7 +50275,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B596" s="4"/>
       <c r="D596" t="str" cm="1">
         <f t="array" aca="1" ref="D596" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C596))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C596))=1), "C", "")</f>
         <v/>
@@ -50890,7 +50297,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B597" s="4"/>
       <c r="D597" t="str" cm="1">
         <f t="array" aca="1" ref="D597" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C597))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C597))=1), "C", "")</f>
         <v/>
@@ -50913,7 +50319,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B598" s="4"/>
       <c r="D598" t="str" cm="1">
         <f t="array" aca="1" ref="D598" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C598))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C598))=1), "C", "")</f>
         <v/>
@@ -50936,7 +50341,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B599" s="4"/>
       <c r="D599" t="str" cm="1">
         <f t="array" aca="1" ref="D599" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C599))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C599))=1), "C", "")</f>
         <v/>
@@ -50959,7 +50363,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B600" s="4"/>
       <c r="D600" t="str" cm="1">
         <f t="array" aca="1" ref="D600" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C600))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C600))=1), "C", "")</f>
         <v/>
@@ -50982,7 +50385,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B601" s="4"/>
       <c r="D601" t="str" cm="1">
         <f t="array" aca="1" ref="D601" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C601))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C601))=1), "C", "")</f>
         <v/>
@@ -51005,7 +50407,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B602" s="4"/>
       <c r="D602" t="str" cm="1">
         <f t="array" aca="1" ref="D602" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C602))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C602))=1), "C", "")</f>
         <v/>
@@ -51028,7 +50429,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B603" s="4"/>
       <c r="D603" t="str" cm="1">
         <f t="array" aca="1" ref="D603" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C603))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C603))=1), "C", "")</f>
         <v/>
@@ -51051,7 +50451,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B604" s="4"/>
       <c r="D604" t="str" cm="1">
         <f t="array" aca="1" ref="D604" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C604))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C604))=1), "C", "")</f>
         <v/>
@@ -51074,7 +50473,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B605" s="4"/>
       <c r="D605" t="str" cm="1">
         <f t="array" aca="1" ref="D605" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C605))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C605))=1), "C", "")</f>
         <v/>
@@ -51097,7 +50495,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B606" s="4"/>
       <c r="D606" t="str" cm="1">
         <f t="array" aca="1" ref="D606" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C606))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C606))=1), "C", "")</f>
         <v/>
@@ -51120,7 +50517,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B607" s="4"/>
       <c r="D607" t="str" cm="1">
         <f t="array" aca="1" ref="D607" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C607))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C607))=1), "C", "")</f>
         <v/>
@@ -51143,7 +50539,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B608" s="4"/>
       <c r="D608" t="str" cm="1">
         <f t="array" aca="1" ref="D608" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C608))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C608))=1), "C", "")</f>
         <v/>
@@ -51166,7 +50561,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B609" s="4"/>
       <c r="D609" t="str" cm="1">
         <f t="array" aca="1" ref="D609" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C609))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C609))=1), "C", "")</f>
         <v/>
@@ -51189,7 +50583,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B610" s="4"/>
       <c r="D610" t="str" cm="1">
         <f t="array" aca="1" ref="D610" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C610))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C610))=1), "C", "")</f>
         <v/>
@@ -51212,7 +50605,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B611" s="4"/>
       <c r="D611" t="str" cm="1">
         <f t="array" aca="1" ref="D611" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C611))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C611))=1), "C", "")</f>
         <v/>
@@ -51235,7 +50627,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B612" s="4"/>
       <c r="D612" t="str" cm="1">
         <f t="array" aca="1" ref="D612" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C612))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C612))=1), "C", "")</f>
         <v/>
@@ -51258,7 +50649,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B613" s="4"/>
       <c r="D613" t="str" cm="1">
         <f t="array" aca="1" ref="D613" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C613))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C613))=1), "C", "")</f>
         <v/>
@@ -51281,7 +50671,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B614" s="4"/>
       <c r="D614" t="str" cm="1">
         <f t="array" aca="1" ref="D614" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C614))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C614))=1), "C", "")</f>
         <v/>
@@ -51304,7 +50693,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B615" s="4"/>
       <c r="D615" t="str" cm="1">
         <f t="array" aca="1" ref="D615" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C615))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C615))=1), "C", "")</f>
         <v/>
@@ -51327,7 +50715,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B616" s="4"/>
       <c r="D616" t="str" cm="1">
         <f t="array" aca="1" ref="D616" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C616))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C616))=1), "C", "")</f>
         <v/>
@@ -51350,7 +50737,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B617" s="4"/>
       <c r="D617" t="str" cm="1">
         <f t="array" aca="1" ref="D617" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C617))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C617))=1), "C", "")</f>
         <v/>
@@ -51373,7 +50759,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B618" s="4"/>
       <c r="D618" t="str" cm="1">
         <f t="array" aca="1" ref="D618" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C618))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C618))=1), "C", "")</f>
         <v/>
@@ -51396,7 +50781,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B619" s="4"/>
       <c r="D619" t="str" cm="1">
         <f t="array" aca="1" ref="D619" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C619))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C619))=1), "C", "")</f>
         <v/>
@@ -51419,7 +50803,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B620" s="4"/>
       <c r="D620" t="str" cm="1">
         <f t="array" aca="1" ref="D620" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C620))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C620))=1), "C", "")</f>
         <v/>
@@ -51442,7 +50825,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B621" s="4"/>
       <c r="D621" t="str" cm="1">
         <f t="array" aca="1" ref="D621" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C621))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C621))=1), "C", "")</f>
         <v/>
@@ -51465,7 +50847,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B622" s="4"/>
       <c r="D622" t="str" cm="1">
         <f t="array" aca="1" ref="D622" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C622))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C622))=1), "C", "")</f>
         <v/>
@@ -51488,7 +50869,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B623" s="4"/>
       <c r="D623" t="str" cm="1">
         <f t="array" aca="1" ref="D623" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C623))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C623))=1), "C", "")</f>
         <v/>
@@ -51511,7 +50891,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B624" s="4"/>
       <c r="D624" t="str" cm="1">
         <f t="array" aca="1" ref="D624" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C624))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C624))=1), "C", "")</f>
         <v/>
@@ -51534,7 +50913,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B625" s="4"/>
       <c r="D625" t="str" cm="1">
         <f t="array" aca="1" ref="D625" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C625))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C625))=1), "C", "")</f>
         <v/>
@@ -51557,7 +50935,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B626" s="4"/>
       <c r="D626" t="str" cm="1">
         <f t="array" aca="1" ref="D626" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C626))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C626))=1), "C", "")</f>
         <v/>
@@ -51580,7 +50957,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B627" s="4"/>
       <c r="D627" t="str" cm="1">
         <f t="array" aca="1" ref="D627" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C627))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C627))=1), "C", "")</f>
         <v/>
@@ -51603,7 +50979,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B628" s="4"/>
       <c r="D628" t="str" cm="1">
         <f t="array" aca="1" ref="D628" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C628))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C628))=1), "C", "")</f>
         <v/>
@@ -51626,7 +51001,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B629" s="4"/>
       <c r="D629" t="str" cm="1">
         <f t="array" aca="1" ref="D629" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C629))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C629))=1), "C", "")</f>
         <v/>
@@ -51649,7 +51023,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B630" s="4"/>
       <c r="D630" t="str" cm="1">
         <f t="array" aca="1" ref="D630" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C630))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C630))=1), "C", "")</f>
         <v/>
@@ -51672,7 +51045,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B631" s="4"/>
       <c r="D631" t="str" cm="1">
         <f t="array" aca="1" ref="D631" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C631))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C631))=1), "C", "")</f>
         <v/>
@@ -51695,7 +51067,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B632" s="4"/>
       <c r="D632" t="str" cm="1">
         <f t="array" aca="1" ref="D632" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C632))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C632))=1), "C", "")</f>
         <v/>
@@ -51718,7 +51089,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B633" s="4"/>
       <c r="D633" t="str" cm="1">
         <f t="array" aca="1" ref="D633" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C633))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C633))=1), "C", "")</f>
         <v/>
@@ -51741,7 +51111,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B634" s="4"/>
       <c r="D634" t="str" cm="1">
         <f t="array" aca="1" ref="D634" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C634))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C634))=1), "C", "")</f>
         <v/>
@@ -51764,7 +51133,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B635" s="4"/>
       <c r="D635" t="str" cm="1">
         <f t="array" aca="1" ref="D635" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C635))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C635))=1), "C", "")</f>
         <v/>
@@ -51787,7 +51155,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B636" s="4"/>
       <c r="D636" t="str" cm="1">
         <f t="array" aca="1" ref="D636" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C636))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C636))=1), "C", "")</f>
         <v/>
@@ -51810,7 +51177,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B637" s="4"/>
       <c r="D637" t="str" cm="1">
         <f t="array" aca="1" ref="D637" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C637))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C637))=1), "C", "")</f>
         <v/>
@@ -51833,7 +51199,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B638" s="4"/>
       <c r="D638" t="str" cm="1">
         <f t="array" aca="1" ref="D638" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C638))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C638))=1), "C", "")</f>
         <v/>
@@ -51856,7 +51221,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B639" s="4"/>
       <c r="D639" t="str" cm="1">
         <f t="array" aca="1" ref="D639" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C639))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C639))=1), "C", "")</f>
         <v/>
@@ -51879,7 +51243,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B640" s="4"/>
       <c r="D640" t="str" cm="1">
         <f t="array" aca="1" ref="D640" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C640))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C640))=1), "C", "")</f>
         <v/>
@@ -51902,7 +51265,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B641" s="4"/>
       <c r="D641" t="str" cm="1">
         <f t="array" aca="1" ref="D641" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C641))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C641))=1), "C", "")</f>
         <v/>
@@ -51925,7 +51287,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B642" s="4"/>
       <c r="D642" t="str" cm="1">
         <f t="array" aca="1" ref="D642" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C642))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C642))=1), "C", "")</f>
         <v/>
@@ -51948,7 +51309,6 @@
         <f t="shared" ref="A643:A706" ca="1" si="32">IF(AND(C643&lt;&gt;"",D643&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D643),"_"),C643),"")</f>
         <v/>
       </c>
-      <c r="B643" s="4"/>
       <c r="D643" t="str" cm="1">
         <f t="array" aca="1" ref="D643" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C643))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C643))=1), "C", "")</f>
         <v/>
@@ -51971,7 +51331,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B644" s="4"/>
       <c r="D644" t="str" cm="1">
         <f t="array" aca="1" ref="D644" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C644))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C644))=1), "C", "")</f>
         <v/>
@@ -51994,7 +51353,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B645" s="4"/>
       <c r="D645" t="str" cm="1">
         <f t="array" aca="1" ref="D645" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C645))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C645))=1), "C", "")</f>
         <v/>
@@ -52017,7 +51375,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B646" s="4"/>
       <c r="D646" t="str" cm="1">
         <f t="array" aca="1" ref="D646" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C646))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C646))=1), "C", "")</f>
         <v/>
@@ -52040,7 +51397,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B647" s="4"/>
       <c r="D647" t="str" cm="1">
         <f t="array" aca="1" ref="D647" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C647))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C647))=1), "C", "")</f>
         <v/>
@@ -52063,7 +51419,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B648" s="4"/>
       <c r="D648" t="str" cm="1">
         <f t="array" aca="1" ref="D648" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C648))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C648))=1), "C", "")</f>
         <v/>
@@ -52086,7 +51441,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B649" s="4"/>
       <c r="D649" t="str" cm="1">
         <f t="array" aca="1" ref="D649" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C649))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C649))=1), "C", "")</f>
         <v/>
@@ -52109,7 +51463,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B650" s="4"/>
       <c r="D650" t="str" cm="1">
         <f t="array" aca="1" ref="D650" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C650))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C650))=1), "C", "")</f>
         <v/>
@@ -52132,7 +51485,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B651" s="4"/>
       <c r="D651" t="str" cm="1">
         <f t="array" aca="1" ref="D651" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C651))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C651))=1), "C", "")</f>
         <v/>
@@ -52155,7 +51507,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B652" s="4"/>
       <c r="D652" t="str" cm="1">
         <f t="array" aca="1" ref="D652" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C652))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C652))=1), "C", "")</f>
         <v/>
@@ -52178,7 +51529,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B653" s="4"/>
       <c r="D653" t="str" cm="1">
         <f t="array" aca="1" ref="D653" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C653))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C653))=1), "C", "")</f>
         <v/>
@@ -52201,7 +51551,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B654" s="4"/>
       <c r="D654" t="str" cm="1">
         <f t="array" aca="1" ref="D654" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C654))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C654))=1), "C", "")</f>
         <v/>
@@ -52224,7 +51573,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B655" s="4"/>
       <c r="D655" t="str" cm="1">
         <f t="array" aca="1" ref="D655" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C655))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C655))=1), "C", "")</f>
         <v/>
@@ -52247,7 +51595,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B656" s="4"/>
       <c r="D656" t="str" cm="1">
         <f t="array" aca="1" ref="D656" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C656))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C656))=1), "C", "")</f>
         <v/>
@@ -52270,7 +51617,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B657" s="4"/>
       <c r="D657" t="str" cm="1">
         <f t="array" aca="1" ref="D657" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C657))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C657))=1), "C", "")</f>
         <v/>
@@ -52293,7 +51639,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B658" s="4"/>
       <c r="D658" t="str" cm="1">
         <f t="array" aca="1" ref="D658" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C658))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C658))=1), "C", "")</f>
         <v/>
@@ -52316,7 +51661,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B659" s="4"/>
       <c r="D659" t="str" cm="1">
         <f t="array" aca="1" ref="D659" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C659))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C659))=1), "C", "")</f>
         <v/>
@@ -52339,7 +51683,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B660" s="4"/>
       <c r="D660" t="str" cm="1">
         <f t="array" aca="1" ref="D660" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C660))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C660))=1), "C", "")</f>
         <v/>
@@ -52362,7 +51705,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B661" s="4"/>
       <c r="D661" t="str" cm="1">
         <f t="array" aca="1" ref="D661" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C661))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C661))=1), "C", "")</f>
         <v/>
@@ -52385,7 +51727,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B662" s="4"/>
       <c r="D662" t="str" cm="1">
         <f t="array" aca="1" ref="D662" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C662))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C662))=1), "C", "")</f>
         <v/>
@@ -52408,7 +51749,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B663" s="4"/>
       <c r="D663" t="str" cm="1">
         <f t="array" aca="1" ref="D663" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C663))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C663))=1), "C", "")</f>
         <v/>
@@ -52431,7 +51771,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B664" s="4"/>
       <c r="D664" t="str" cm="1">
         <f t="array" aca="1" ref="D664" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C664))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C664))=1), "C", "")</f>
         <v/>
@@ -52454,7 +51793,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B665" s="4"/>
       <c r="D665" t="str" cm="1">
         <f t="array" aca="1" ref="D665" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C665))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C665))=1), "C", "")</f>
         <v/>
@@ -52477,7 +51815,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B666" s="4"/>
       <c r="D666" t="str" cm="1">
         <f t="array" aca="1" ref="D666" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C666))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C666))=1), "C", "")</f>
         <v/>
@@ -52500,7 +51837,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B667" s="4"/>
       <c r="D667" t="str" cm="1">
         <f t="array" aca="1" ref="D667" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C667))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C667))=1), "C", "")</f>
         <v/>
@@ -52523,7 +51859,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B668" s="4"/>
       <c r="D668" t="str" cm="1">
         <f t="array" aca="1" ref="D668" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C668))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C668))=1), "C", "")</f>
         <v/>
@@ -52546,7 +51881,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B669" s="4"/>
       <c r="D669" t="str" cm="1">
         <f t="array" aca="1" ref="D669" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C669))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C669))=1), "C", "")</f>
         <v/>
@@ -52569,7 +51903,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B670" s="4"/>
       <c r="D670" t="str" cm="1">
         <f t="array" aca="1" ref="D670" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C670))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C670))=1), "C", "")</f>
         <v/>
@@ -52592,7 +51925,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B671" s="4"/>
       <c r="D671" t="str" cm="1">
         <f t="array" aca="1" ref="D671" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C671))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C671))=1), "C", "")</f>
         <v/>
@@ -52615,7 +51947,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B672" s="4"/>
       <c r="D672" t="str" cm="1">
         <f t="array" aca="1" ref="D672" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C672))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C672))=1), "C", "")</f>
         <v/>
@@ -52638,7 +51969,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B673" s="4"/>
       <c r="D673" t="str" cm="1">
         <f t="array" aca="1" ref="D673" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C673))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C673))=1), "C", "")</f>
         <v/>
@@ -52661,7 +51991,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B674" s="4"/>
       <c r="D674" t="str" cm="1">
         <f t="array" aca="1" ref="D674" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C674))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C674))=1), "C", "")</f>
         <v/>
@@ -52684,7 +52013,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B675" s="4"/>
       <c r="D675" t="str" cm="1">
         <f t="array" aca="1" ref="D675" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C675))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C675))=1), "C", "")</f>
         <v/>
@@ -52707,7 +52035,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B676" s="4"/>
       <c r="D676" t="str" cm="1">
         <f t="array" aca="1" ref="D676" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C676))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C676))=1), "C", "")</f>
         <v/>
@@ -52730,7 +52057,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B677" s="4"/>
       <c r="D677" t="str" cm="1">
         <f t="array" aca="1" ref="D677" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C677))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C677))=1), "C", "")</f>
         <v/>
@@ -52753,7 +52079,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B678" s="4"/>
       <c r="D678" t="str" cm="1">
         <f t="array" aca="1" ref="D678" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C678))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C678))=1), "C", "")</f>
         <v/>
@@ -52776,7 +52101,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B679" s="4"/>
       <c r="D679" t="str" cm="1">
         <f t="array" aca="1" ref="D679" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C679))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C679))=1), "C", "")</f>
         <v/>
@@ -52799,7 +52123,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B680" s="4"/>
       <c r="D680" t="str" cm="1">
         <f t="array" aca="1" ref="D680" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C680))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C680))=1), "C", "")</f>
         <v/>
@@ -52822,7 +52145,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B681" s="4"/>
       <c r="D681" t="str" cm="1">
         <f t="array" aca="1" ref="D681" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C681))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C681))=1), "C", "")</f>
         <v/>
@@ -52845,7 +52167,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B682" s="4"/>
       <c r="D682" t="str" cm="1">
         <f t="array" aca="1" ref="D682" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C682))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C682))=1), "C", "")</f>
         <v/>
@@ -52868,7 +52189,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B683" s="4"/>
       <c r="D683" t="str" cm="1">
         <f t="array" aca="1" ref="D683" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C683))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C683))=1), "C", "")</f>
         <v/>
@@ -52891,7 +52211,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B684" s="4"/>
       <c r="D684" t="str" cm="1">
         <f t="array" aca="1" ref="D684" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C684))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C684))=1), "C", "")</f>
         <v/>
@@ -52914,7 +52233,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B685" s="4"/>
       <c r="D685" t="str" cm="1">
         <f t="array" aca="1" ref="D685" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C685))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C685))=1), "C", "")</f>
         <v/>
@@ -52937,7 +52255,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B686" s="4"/>
       <c r="D686" t="str" cm="1">
         <f t="array" aca="1" ref="D686" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C686))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C686))=1), "C", "")</f>
         <v/>
@@ -52960,7 +52277,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B687" s="4"/>
       <c r="D687" t="str" cm="1">
         <f t="array" aca="1" ref="D687" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C687))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C687))=1), "C", "")</f>
         <v/>
@@ -52983,7 +52299,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B688" s="4"/>
       <c r="D688" t="str" cm="1">
         <f t="array" aca="1" ref="D688" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C688))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C688))=1), "C", "")</f>
         <v/>
@@ -53006,7 +52321,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B689" s="4"/>
       <c r="D689" t="str" cm="1">
         <f t="array" aca="1" ref="D689" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C689))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C689))=1), "C", "")</f>
         <v/>
@@ -53029,7 +52343,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B690" s="4"/>
       <c r="D690" t="str" cm="1">
         <f t="array" aca="1" ref="D690" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C690))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C690))=1), "C", "")</f>
         <v/>
@@ -53052,7 +52365,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B691" s="4"/>
       <c r="D691" t="str" cm="1">
         <f t="array" aca="1" ref="D691" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C691))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C691))=1), "C", "")</f>
         <v/>
@@ -53075,7 +52387,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B692" s="4"/>
       <c r="D692" t="str" cm="1">
         <f t="array" aca="1" ref="D692" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C692))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C692))=1), "C", "")</f>
         <v/>
@@ -53098,7 +52409,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B693" s="4"/>
       <c r="D693" t="str" cm="1">
         <f t="array" aca="1" ref="D693" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C693))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C693))=1), "C", "")</f>
         <v/>
@@ -53121,7 +52431,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B694" s="4"/>
       <c r="D694" t="str" cm="1">
         <f t="array" aca="1" ref="D694" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C694))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C694))=1), "C", "")</f>
         <v/>
@@ -53144,7 +52453,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B695" s="4"/>
       <c r="D695" t="str" cm="1">
         <f t="array" aca="1" ref="D695" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C695))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C695))=1), "C", "")</f>
         <v/>
@@ -53167,7 +52475,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B696" s="4"/>
       <c r="D696" t="str" cm="1">
         <f t="array" aca="1" ref="D696" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C696))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C696))=1), "C", "")</f>
         <v/>
@@ -53190,7 +52497,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B697" s="4"/>
       <c r="D697" t="str" cm="1">
         <f t="array" aca="1" ref="D697" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C697))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C697))=1), "C", "")</f>
         <v/>
@@ -53213,7 +52519,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B698" s="4"/>
       <c r="D698" t="str" cm="1">
         <f t="array" aca="1" ref="D698" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C698))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C698))=1), "C", "")</f>
         <v/>
@@ -53236,7 +52541,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B699" s="4"/>
       <c r="D699" t="str" cm="1">
         <f t="array" aca="1" ref="D699" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C699))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C699))=1), "C", "")</f>
         <v/>
@@ -53259,7 +52563,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B700" s="4"/>
       <c r="D700" t="str" cm="1">
         <f t="array" aca="1" ref="D700" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C700))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C700))=1), "C", "")</f>
         <v/>
@@ -53282,7 +52585,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B701" s="4"/>
       <c r="D701" t="str" cm="1">
         <f t="array" aca="1" ref="D701" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C701))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C701))=1), "C", "")</f>
         <v/>
@@ -53305,7 +52607,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B702" s="4"/>
       <c r="D702" t="str" cm="1">
         <f t="array" aca="1" ref="D702" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C702))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C702))=1), "C", "")</f>
         <v/>
@@ -53328,7 +52629,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B703" s="4"/>
       <c r="D703" t="str" cm="1">
         <f t="array" aca="1" ref="D703" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C703))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C703))=1), "C", "")</f>
         <v/>
@@ -53351,7 +52651,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B704" s="4"/>
       <c r="D704" t="str" cm="1">
         <f t="array" aca="1" ref="D704" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C704))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C704))=1), "C", "")</f>
         <v/>
@@ -53374,7 +52673,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B705" s="4"/>
       <c r="D705" t="str" cm="1">
         <f t="array" aca="1" ref="D705" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C705))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C705))=1), "C", "")</f>
         <v/>
@@ -53397,7 +52695,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B706" s="4"/>
       <c r="D706" t="str" cm="1">
         <f t="array" aca="1" ref="D706" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C706))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C706))=1), "C", "")</f>
         <v/>
@@ -53420,7 +52717,6 @@
         <f t="shared" ref="A707:A770" ca="1" si="36">IF(AND(C707&lt;&gt;"",D707&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D707),"_"),C707),"")</f>
         <v/>
       </c>
-      <c r="B707" s="4"/>
       <c r="D707" t="str" cm="1">
         <f t="array" aca="1" ref="D707" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C707))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C707))=1), "C", "")</f>
         <v/>
@@ -53443,7 +52739,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B708" s="4"/>
       <c r="D708" t="str" cm="1">
         <f t="array" aca="1" ref="D708" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C708))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C708))=1), "C", "")</f>
         <v/>
@@ -53466,7 +52761,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B709" s="4"/>
       <c r="D709" t="str" cm="1">
         <f t="array" aca="1" ref="D709" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C709))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C709))=1), "C", "")</f>
         <v/>
@@ -53489,7 +52783,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B710" s="4"/>
       <c r="D710" t="str" cm="1">
         <f t="array" aca="1" ref="D710" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C710))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C710))=1), "C", "")</f>
         <v/>
@@ -53512,7 +52805,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B711" s="4"/>
       <c r="D711" t="str" cm="1">
         <f t="array" aca="1" ref="D711" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C711))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C711))=1), "C", "")</f>
         <v/>
@@ -53535,7 +52827,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B712" s="4"/>
       <c r="D712" t="str" cm="1">
         <f t="array" aca="1" ref="D712" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C712))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C712))=1), "C", "")</f>
         <v/>
@@ -53558,7 +52849,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B713" s="4"/>
       <c r="D713" t="str" cm="1">
         <f t="array" aca="1" ref="D713" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C713))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C713))=1), "C", "")</f>
         <v/>
@@ -53581,7 +52871,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B714" s="4"/>
       <c r="D714" t="str" cm="1">
         <f t="array" aca="1" ref="D714" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C714))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C714))=1), "C", "")</f>
         <v/>
@@ -53604,7 +52893,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B715" s="4"/>
       <c r="D715" t="str" cm="1">
         <f t="array" aca="1" ref="D715" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C715))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C715))=1), "C", "")</f>
         <v/>
@@ -53627,7 +52915,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B716" s="4"/>
       <c r="D716" t="str" cm="1">
         <f t="array" aca="1" ref="D716" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C716))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C716))=1), "C", "")</f>
         <v/>
@@ -53650,7 +52937,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B717" s="4"/>
       <c r="D717" t="str" cm="1">
         <f t="array" aca="1" ref="D717" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C717))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C717))=1), "C", "")</f>
         <v/>
@@ -53673,7 +52959,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B718" s="4"/>
       <c r="D718" t="str" cm="1">
         <f t="array" aca="1" ref="D718" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C718))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C718))=1), "C", "")</f>
         <v/>
@@ -53696,7 +52981,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B719" s="4"/>
       <c r="D719" t="str" cm="1">
         <f t="array" aca="1" ref="D719" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C719))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C719))=1), "C", "")</f>
         <v/>
@@ -53719,7 +53003,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B720" s="4"/>
       <c r="D720" t="str" cm="1">
         <f t="array" aca="1" ref="D720" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C720))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C720))=1), "C", "")</f>
         <v/>
@@ -53742,7 +53025,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B721" s="4"/>
       <c r="D721" t="str" cm="1">
         <f t="array" aca="1" ref="D721" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C721))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C721))=1), "C", "")</f>
         <v/>
@@ -53765,7 +53047,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B722" s="4"/>
       <c r="D722" t="str" cm="1">
         <f t="array" aca="1" ref="D722" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C722))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C722))=1), "C", "")</f>
         <v/>
@@ -53788,7 +53069,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B723" s="4"/>
       <c r="D723" t="str" cm="1">
         <f t="array" aca="1" ref="D723" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C723))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C723))=1), "C", "")</f>
         <v/>
@@ -53811,7 +53091,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B724" s="4"/>
       <c r="D724" t="str" cm="1">
         <f t="array" aca="1" ref="D724" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C724))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C724))=1), "C", "")</f>
         <v/>
@@ -53834,7 +53113,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B725" s="4"/>
       <c r="D725" t="str" cm="1">
         <f t="array" aca="1" ref="D725" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C725))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C725))=1), "C", "")</f>
         <v/>
@@ -53857,7 +53135,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B726" s="4"/>
       <c r="D726" t="str" cm="1">
         <f t="array" aca="1" ref="D726" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C726))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C726))=1), "C", "")</f>
         <v/>
@@ -53880,7 +53157,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B727" s="4"/>
       <c r="D727" t="str" cm="1">
         <f t="array" aca="1" ref="D727" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C727))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C727))=1), "C", "")</f>
         <v/>
@@ -53903,7 +53179,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B728" s="4"/>
       <c r="D728" t="str" cm="1">
         <f t="array" aca="1" ref="D728" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C728))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C728))=1), "C", "")</f>
         <v/>
@@ -53926,7 +53201,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B729" s="4"/>
       <c r="D729" t="str" cm="1">
         <f t="array" aca="1" ref="D729" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C729))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C729))=1), "C", "")</f>
         <v/>
@@ -53949,7 +53223,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B730" s="4"/>
       <c r="D730" t="str" cm="1">
         <f t="array" aca="1" ref="D730" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C730))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C730))=1), "C", "")</f>
         <v/>
@@ -53972,7 +53245,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B731" s="4"/>
       <c r="D731" t="str" cm="1">
         <f t="array" aca="1" ref="D731" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C731))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C731))=1), "C", "")</f>
         <v/>
@@ -53995,7 +53267,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B732" s="4"/>
       <c r="D732" t="str" cm="1">
         <f t="array" aca="1" ref="D732" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C732))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C732))=1), "C", "")</f>
         <v/>
@@ -54018,7 +53289,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B733" s="4"/>
       <c r="D733" t="str" cm="1">
         <f t="array" aca="1" ref="D733" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C733))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C733))=1), "C", "")</f>
         <v/>
@@ -54041,7 +53311,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B734" s="4"/>
       <c r="D734" t="str" cm="1">
         <f t="array" aca="1" ref="D734" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C734))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C734))=1), "C", "")</f>
         <v/>
@@ -54064,7 +53333,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B735" s="4"/>
       <c r="D735" t="str" cm="1">
         <f t="array" aca="1" ref="D735" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C735))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C735))=1), "C", "")</f>
         <v/>
@@ -54087,7 +53355,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B736" s="4"/>
       <c r="D736" t="str" cm="1">
         <f t="array" aca="1" ref="D736" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C736))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C736))=1), "C", "")</f>
         <v/>
@@ -54110,7 +53377,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B737" s="4"/>
       <c r="D737" t="str" cm="1">
         <f t="array" aca="1" ref="D737" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C737))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C737))=1), "C", "")</f>
         <v/>
@@ -54133,7 +53399,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B738" s="4"/>
       <c r="D738" t="str" cm="1">
         <f t="array" aca="1" ref="D738" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C738))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C738))=1), "C", "")</f>
         <v/>
@@ -54156,7 +53421,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B739" s="4"/>
       <c r="D739" t="str" cm="1">
         <f t="array" aca="1" ref="D739" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C739))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C739))=1), "C", "")</f>
         <v/>
@@ -54179,7 +53443,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B740" s="4"/>
       <c r="D740" t="str" cm="1">
         <f t="array" aca="1" ref="D740" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C740))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C740))=1), "C", "")</f>
         <v/>
@@ -54202,7 +53465,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B741" s="4"/>
       <c r="D741" t="str" cm="1">
         <f t="array" aca="1" ref="D741" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C741))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C741))=1), "C", "")</f>
         <v/>
@@ -54225,7 +53487,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B742" s="4"/>
       <c r="D742" t="str" cm="1">
         <f t="array" aca="1" ref="D742" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C742))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C742))=1), "C", "")</f>
         <v/>
@@ -54248,7 +53509,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B743" s="4"/>
       <c r="D743" t="str" cm="1">
         <f t="array" aca="1" ref="D743" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C743))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C743))=1), "C", "")</f>
         <v/>
@@ -54271,7 +53531,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B744" s="4"/>
       <c r="D744" t="str" cm="1">
         <f t="array" aca="1" ref="D744" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C744))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C744))=1), "C", "")</f>
         <v/>
@@ -54294,7 +53553,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B745" s="4"/>
       <c r="D745" t="str" cm="1">
         <f t="array" aca="1" ref="D745" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C745))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C745))=1), "C", "")</f>
         <v/>
@@ -54317,7 +53575,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B746" s="4"/>
       <c r="D746" t="str" cm="1">
         <f t="array" aca="1" ref="D746" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C746))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C746))=1), "C", "")</f>
         <v/>
@@ -54340,7 +53597,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B747" s="4"/>
       <c r="D747" t="str" cm="1">
         <f t="array" aca="1" ref="D747" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C747))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C747))=1), "C", "")</f>
         <v/>
@@ -54363,7 +53619,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B748" s="4"/>
       <c r="D748" t="str" cm="1">
         <f t="array" aca="1" ref="D748" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C748))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C748))=1), "C", "")</f>
         <v/>
@@ -54386,7 +53641,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B749" s="4"/>
       <c r="D749" t="str" cm="1">
         <f t="array" aca="1" ref="D749" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C749))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C749))=1), "C", "")</f>
         <v/>
@@ -54409,7 +53663,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B750" s="4"/>
       <c r="D750" t="str" cm="1">
         <f t="array" aca="1" ref="D750" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C750))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C750))=1), "C", "")</f>
         <v/>
@@ -54432,7 +53685,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B751" s="4"/>
       <c r="D751" t="str" cm="1">
         <f t="array" aca="1" ref="D751" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C751))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C751))=1), "C", "")</f>
         <v/>
@@ -54455,7 +53707,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B752" s="4"/>
       <c r="D752" t="str" cm="1">
         <f t="array" aca="1" ref="D752" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C752))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C752))=1), "C", "")</f>
         <v/>
@@ -54478,7 +53729,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B753" s="4"/>
       <c r="D753" t="str" cm="1">
         <f t="array" aca="1" ref="D753" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C753))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C753))=1), "C", "")</f>
         <v/>
@@ -54501,7 +53751,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B754" s="4"/>
       <c r="D754" t="str" cm="1">
         <f t="array" aca="1" ref="D754" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C754))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C754))=1), "C", "")</f>
         <v/>
@@ -54524,7 +53773,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B755" s="4"/>
       <c r="D755" t="str" cm="1">
         <f t="array" aca="1" ref="D755" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C755))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C755))=1), "C", "")</f>
         <v/>
@@ -54547,7 +53795,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B756" s="4"/>
       <c r="D756" t="str" cm="1">
         <f t="array" aca="1" ref="D756" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C756))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C756))=1), "C", "")</f>
         <v/>
@@ -54570,7 +53817,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B757" s="4"/>
       <c r="D757" t="str" cm="1">
         <f t="array" aca="1" ref="D757" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C757))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C757))=1), "C", "")</f>
         <v/>
@@ -54593,7 +53839,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B758" s="4"/>
       <c r="D758" t="str" cm="1">
         <f t="array" aca="1" ref="D758" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C758))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C758))=1), "C", "")</f>
         <v/>
@@ -54616,7 +53861,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B759" s="4"/>
       <c r="D759" t="str" cm="1">
         <f t="array" aca="1" ref="D759" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C759))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C759))=1), "C", "")</f>
         <v/>
@@ -54639,7 +53883,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B760" s="4"/>
       <c r="D760" t="str" cm="1">
         <f t="array" aca="1" ref="D760" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C760))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C760))=1), "C", "")</f>
         <v/>
@@ -54662,7 +53905,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B761" s="4"/>
       <c r="D761" t="str" cm="1">
         <f t="array" aca="1" ref="D761" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C761))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C761))=1), "C", "")</f>
         <v/>
@@ -54685,7 +53927,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B762" s="4"/>
       <c r="D762" t="str" cm="1">
         <f t="array" aca="1" ref="D762" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C762))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C762))=1), "C", "")</f>
         <v/>
@@ -54708,7 +53949,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B763" s="4"/>
       <c r="D763" t="str" cm="1">
         <f t="array" aca="1" ref="D763" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C763))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C763))=1), "C", "")</f>
         <v/>
@@ -54731,7 +53971,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B764" s="4"/>
       <c r="D764" t="str" cm="1">
         <f t="array" aca="1" ref="D764" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C764))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C764))=1), "C", "")</f>
         <v/>
@@ -54754,7 +53993,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B765" s="4"/>
       <c r="D765" t="str" cm="1">
         <f t="array" aca="1" ref="D765" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C765))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C765))=1), "C", "")</f>
         <v/>
@@ -54777,7 +54015,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B766" s="4"/>
       <c r="D766" t="str" cm="1">
         <f t="array" aca="1" ref="D766" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C766))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C766))=1), "C", "")</f>
         <v/>
@@ -54800,7 +54037,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B767" s="4"/>
       <c r="D767" t="str" cm="1">
         <f t="array" aca="1" ref="D767" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C767))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C767))=1), "C", "")</f>
         <v/>
@@ -54823,7 +54059,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B768" s="4"/>
       <c r="D768" t="str" cm="1">
         <f t="array" aca="1" ref="D768" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C768))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C768))=1), "C", "")</f>
         <v/>
@@ -54846,7 +54081,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B769" s="4"/>
       <c r="D769" t="str" cm="1">
         <f t="array" aca="1" ref="D769" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C769))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C769))=1), "C", "")</f>
         <v/>
@@ -54869,7 +54103,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B770" s="4"/>
       <c r="D770" t="str" cm="1">
         <f t="array" aca="1" ref="D770" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C770))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C770))=1), "C", "")</f>
         <v/>
@@ -54892,7 +54125,6 @@
         <f t="shared" ref="A771:A834" ca="1" si="40">IF(AND(C771&lt;&gt;"",D771&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D771),"_"),C771),"")</f>
         <v/>
       </c>
-      <c r="B771" s="4"/>
       <c r="D771" t="str" cm="1">
         <f t="array" aca="1" ref="D771" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C771))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C771))=1), "C", "")</f>
         <v/>
@@ -54915,7 +54147,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B772" s="4"/>
       <c r="D772" t="str" cm="1">
         <f t="array" aca="1" ref="D772" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C772))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C772))=1), "C", "")</f>
         <v/>
@@ -54938,7 +54169,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B773" s="4"/>
       <c r="D773" t="str" cm="1">
         <f t="array" aca="1" ref="D773" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C773))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C773))=1), "C", "")</f>
         <v/>
@@ -54961,7 +54191,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B774" s="4"/>
       <c r="D774" t="str" cm="1">
         <f t="array" aca="1" ref="D774" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C774))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C774))=1), "C", "")</f>
         <v/>
@@ -54984,7 +54213,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B775" s="4"/>
       <c r="D775" t="str" cm="1">
         <f t="array" aca="1" ref="D775" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C775))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C775))=1), "C", "")</f>
         <v/>
@@ -55007,7 +54235,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B776" s="4"/>
       <c r="D776" t="str" cm="1">
         <f t="array" aca="1" ref="D776" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C776))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C776))=1), "C", "")</f>
         <v/>
@@ -55030,7 +54257,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B777" s="4"/>
       <c r="D777" t="str" cm="1">
         <f t="array" aca="1" ref="D777" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C777))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C777))=1), "C", "")</f>
         <v/>
@@ -55053,7 +54279,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B778" s="4"/>
       <c r="D778" t="str" cm="1">
         <f t="array" aca="1" ref="D778" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C778))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C778))=1), "C", "")</f>
         <v/>
@@ -55076,7 +54301,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B779" s="4"/>
       <c r="D779" t="str" cm="1">
         <f t="array" aca="1" ref="D779" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C779))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C779))=1), "C", "")</f>
         <v/>
@@ -55099,7 +54323,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B780" s="4"/>
       <c r="D780" t="str" cm="1">
         <f t="array" aca="1" ref="D780" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C780))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C780))=1), "C", "")</f>
         <v/>
@@ -55122,7 +54345,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B781" s="4"/>
       <c r="D781" t="str" cm="1">
         <f t="array" aca="1" ref="D781" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C781))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C781))=1), "C", "")</f>
         <v/>
@@ -55145,7 +54367,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B782" s="4"/>
       <c r="D782" t="str" cm="1">
         <f t="array" aca="1" ref="D782" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C782))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C782))=1), "C", "")</f>
         <v/>
@@ -55168,7 +54389,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B783" s="4"/>
       <c r="D783" t="str" cm="1">
         <f t="array" aca="1" ref="D783" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C783))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C783))=1), "C", "")</f>
         <v/>
@@ -55191,7 +54411,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B784" s="4"/>
       <c r="D784" t="str" cm="1">
         <f t="array" aca="1" ref="D784" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C784))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C784))=1), "C", "")</f>
         <v/>
@@ -55214,7 +54433,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B785" s="4"/>
       <c r="D785" t="str" cm="1">
         <f t="array" aca="1" ref="D785" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C785))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C785))=1), "C", "")</f>
         <v/>
@@ -55237,7 +54455,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B786" s="4"/>
       <c r="D786" t="str" cm="1">
         <f t="array" aca="1" ref="D786" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C786))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C786))=1), "C", "")</f>
         <v/>
@@ -55260,7 +54477,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B787" s="4"/>
       <c r="D787" t="str" cm="1">
         <f t="array" aca="1" ref="D787" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C787))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C787))=1), "C", "")</f>
         <v/>
@@ -55283,7 +54499,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B788" s="4"/>
       <c r="D788" t="str" cm="1">
         <f t="array" aca="1" ref="D788" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C788))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C788))=1), "C", "")</f>
         <v/>
@@ -55306,7 +54521,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B789" s="4"/>
       <c r="D789" t="str" cm="1">
         <f t="array" aca="1" ref="D789" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C789))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C789))=1), "C", "")</f>
         <v/>
@@ -55329,7 +54543,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B790" s="4"/>
       <c r="D790" t="str" cm="1">
         <f t="array" aca="1" ref="D790" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C790))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C790))=1), "C", "")</f>
         <v/>
@@ -55352,7 +54565,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B791" s="4"/>
       <c r="D791" t="str" cm="1">
         <f t="array" aca="1" ref="D791" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C791))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C791))=1), "C", "")</f>
         <v/>
@@ -55375,7 +54587,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B792" s="4"/>
       <c r="D792" t="str" cm="1">
         <f t="array" aca="1" ref="D792" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C792))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C792))=1), "C", "")</f>
         <v/>
@@ -55398,7 +54609,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B793" s="4"/>
       <c r="D793" t="str" cm="1">
         <f t="array" aca="1" ref="D793" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C793))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C793))=1), "C", "")</f>
         <v/>
@@ -55421,7 +54631,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B794" s="4"/>
       <c r="D794" t="str" cm="1">
         <f t="array" aca="1" ref="D794" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C794))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C794))=1), "C", "")</f>
         <v/>
@@ -55444,7 +54653,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B795" s="4"/>
       <c r="D795" t="str" cm="1">
         <f t="array" aca="1" ref="D795" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C795))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C795))=1), "C", "")</f>
         <v/>
@@ -55467,7 +54675,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B796" s="4"/>
       <c r="D796" t="str" cm="1">
         <f t="array" aca="1" ref="D796" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C796))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C796))=1), "C", "")</f>
         <v/>
@@ -55490,7 +54697,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B797" s="4"/>
       <c r="D797" t="str" cm="1">
         <f t="array" aca="1" ref="D797" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C797))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C797))=1), "C", "")</f>
         <v/>
@@ -55513,7 +54719,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B798" s="4"/>
       <c r="D798" t="str" cm="1">
         <f t="array" aca="1" ref="D798" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C798))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C798))=1), "C", "")</f>
         <v/>
@@ -55536,7 +54741,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B799" s="4"/>
       <c r="D799" t="str" cm="1">
         <f t="array" aca="1" ref="D799" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C799))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C799))=1), "C", "")</f>
         <v/>
@@ -55559,7 +54763,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B800" s="4"/>
       <c r="D800" t="str" cm="1">
         <f t="array" aca="1" ref="D800" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C800))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C800))=1), "C", "")</f>
         <v/>
@@ -55582,7 +54785,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B801" s="4"/>
       <c r="D801" t="str" cm="1">
         <f t="array" aca="1" ref="D801" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C801))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C801))=1), "C", "")</f>
         <v/>
@@ -55605,7 +54807,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B802" s="4"/>
       <c r="D802" t="str" cm="1">
         <f t="array" aca="1" ref="D802" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C802))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C802))=1), "C", "")</f>
         <v/>
@@ -55628,7 +54829,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B803" s="4"/>
       <c r="D803" t="str" cm="1">
         <f t="array" aca="1" ref="D803" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C803))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C803))=1), "C", "")</f>
         <v/>
@@ -55651,7 +54851,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B804" s="4"/>
       <c r="D804" t="str" cm="1">
         <f t="array" aca="1" ref="D804" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C804))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C804))=1), "C", "")</f>
         <v/>
@@ -55674,7 +54873,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B805" s="4"/>
       <c r="D805" t="str" cm="1">
         <f t="array" aca="1" ref="D805" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C805))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C805))=1), "C", "")</f>
         <v/>
@@ -55697,7 +54895,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B806" s="4"/>
       <c r="D806" t="str" cm="1">
         <f t="array" aca="1" ref="D806" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C806))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C806))=1), "C", "")</f>
         <v/>
@@ -55720,7 +54917,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B807" s="4"/>
       <c r="D807" t="str" cm="1">
         <f t="array" aca="1" ref="D807" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C807))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C807))=1), "C", "")</f>
         <v/>
@@ -55743,7 +54939,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B808" s="4"/>
       <c r="D808" t="str" cm="1">
         <f t="array" aca="1" ref="D808" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C808))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C808))=1), "C", "")</f>
         <v/>
@@ -55766,7 +54961,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B809" s="4"/>
       <c r="D809" t="str" cm="1">
         <f t="array" aca="1" ref="D809" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C809))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C809))=1), "C", "")</f>
         <v/>
@@ -55789,7 +54983,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B810" s="4"/>
       <c r="D810" t="str" cm="1">
         <f t="array" aca="1" ref="D810" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C810))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C810))=1), "C", "")</f>
         <v/>
@@ -55812,7 +55005,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B811" s="4"/>
       <c r="D811" t="str" cm="1">
         <f t="array" aca="1" ref="D811" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C811))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C811))=1), "C", "")</f>
         <v/>
@@ -55835,7 +55027,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B812" s="4"/>
       <c r="D812" t="str" cm="1">
         <f t="array" aca="1" ref="D812" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C812))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C812))=1), "C", "")</f>
         <v/>
@@ -55858,7 +55049,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B813" s="4"/>
       <c r="D813" t="str" cm="1">
         <f t="array" aca="1" ref="D813" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C813))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C813))=1), "C", "")</f>
         <v/>
@@ -55881,7 +55071,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B814" s="4"/>
       <c r="D814" t="str" cm="1">
         <f t="array" aca="1" ref="D814" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C814))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C814))=1), "C", "")</f>
         <v/>
@@ -55904,7 +55093,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B815" s="4"/>
       <c r="D815" t="str" cm="1">
         <f t="array" aca="1" ref="D815" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C815))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C815))=1), "C", "")</f>
         <v/>
@@ -55927,7 +55115,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B816" s="4"/>
       <c r="D816" t="str" cm="1">
         <f t="array" aca="1" ref="D816" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C816))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C816))=1), "C", "")</f>
         <v/>
@@ -55950,7 +55137,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B817" s="4"/>
       <c r="D817" t="str" cm="1">
         <f t="array" aca="1" ref="D817" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C817))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C817))=1), "C", "")</f>
         <v/>
@@ -55973,7 +55159,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B818" s="4"/>
       <c r="D818" t="str" cm="1">
         <f t="array" aca="1" ref="D818" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C818))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C818))=1), "C", "")</f>
         <v/>
@@ -55996,7 +55181,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B819" s="4"/>
       <c r="D819" t="str" cm="1">
         <f t="array" aca="1" ref="D819" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C819))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C819))=1), "C", "")</f>
         <v/>
@@ -56019,7 +55203,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B820" s="4"/>
       <c r="D820" t="str" cm="1">
         <f t="array" aca="1" ref="D820" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C820))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C820))=1), "C", "")</f>
         <v/>
@@ -56042,7 +55225,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B821" s="4"/>
       <c r="D821" t="str" cm="1">
         <f t="array" aca="1" ref="D821" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C821))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C821))=1), "C", "")</f>
         <v/>
@@ -56065,7 +55247,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B822" s="4"/>
       <c r="D822" t="str" cm="1">
         <f t="array" aca="1" ref="D822" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C822))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C822))=1), "C", "")</f>
         <v/>
@@ -56088,7 +55269,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B823" s="4"/>
       <c r="D823" t="str" cm="1">
         <f t="array" aca="1" ref="D823" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C823))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C823))=1), "C", "")</f>
         <v/>
@@ -56111,7 +55291,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B824" s="4"/>
       <c r="D824" t="str" cm="1">
         <f t="array" aca="1" ref="D824" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C824))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C824))=1), "C", "")</f>
         <v/>
@@ -56134,7 +55313,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B825" s="4"/>
       <c r="D825" t="str" cm="1">
         <f t="array" aca="1" ref="D825" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C825))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C825))=1), "C", "")</f>
         <v/>
@@ -56157,7 +55335,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B826" s="4"/>
       <c r="D826" t="str" cm="1">
         <f t="array" aca="1" ref="D826" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C826))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C826))=1), "C", "")</f>
         <v/>
@@ -56180,7 +55357,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B827" s="4"/>
       <c r="D827" t="str" cm="1">
         <f t="array" aca="1" ref="D827" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C827))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C827))=1), "C", "")</f>
         <v/>
@@ -56203,7 +55379,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B828" s="4"/>
       <c r="D828" t="str" cm="1">
         <f t="array" aca="1" ref="D828" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C828))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C828))=1), "C", "")</f>
         <v/>
@@ -56226,7 +55401,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B829" s="4"/>
       <c r="D829" t="str" cm="1">
         <f t="array" aca="1" ref="D829" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C829))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C829))=1), "C", "")</f>
         <v/>
@@ -56249,7 +55423,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B830" s="4"/>
       <c r="D830" t="str" cm="1">
         <f t="array" aca="1" ref="D830" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C830))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C830))=1), "C", "")</f>
         <v/>
@@ -56272,7 +55445,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B831" s="4"/>
       <c r="D831" t="str" cm="1">
         <f t="array" aca="1" ref="D831" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C831))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C831))=1), "C", "")</f>
         <v/>
@@ -56295,7 +55467,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B832" s="4"/>
       <c r="D832" t="str" cm="1">
         <f t="array" aca="1" ref="D832" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C832))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C832))=1), "C", "")</f>
         <v/>
@@ -56318,7 +55489,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B833" s="4"/>
       <c r="D833" t="str" cm="1">
         <f t="array" aca="1" ref="D833" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C833))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C833))=1), "C", "")</f>
         <v/>
@@ -56341,7 +55511,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B834" s="4"/>
       <c r="D834" t="str" cm="1">
         <f t="array" aca="1" ref="D834" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C834))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C834))=1), "C", "")</f>
         <v/>
@@ -56364,7 +55533,6 @@
         <f t="shared" ref="A835:A898" ca="1" si="44">IF(AND(C835&lt;&gt;"",D835&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D835),"_"),C835),"")</f>
         <v/>
       </c>
-      <c r="B835" s="4"/>
       <c r="D835" t="str" cm="1">
         <f t="array" aca="1" ref="D835" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C835))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C835))=1), "C", "")</f>
         <v/>
@@ -56387,7 +55555,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B836" s="4"/>
       <c r="D836" t="str" cm="1">
         <f t="array" aca="1" ref="D836" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C836))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C836))=1), "C", "")</f>
         <v/>
@@ -56410,7 +55577,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B837" s="4"/>
       <c r="D837" t="str" cm="1">
         <f t="array" aca="1" ref="D837" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C837))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C837))=1), "C", "")</f>
         <v/>
@@ -56433,7 +55599,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B838" s="4"/>
       <c r="D838" t="str" cm="1">
         <f t="array" aca="1" ref="D838" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C838))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C838))=1), "C", "")</f>
         <v/>
@@ -56456,7 +55621,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B839" s="4"/>
       <c r="D839" t="str" cm="1">
         <f t="array" aca="1" ref="D839" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C839))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C839))=1), "C", "")</f>
         <v/>
@@ -56479,7 +55643,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B840" s="4"/>
       <c r="D840" t="str" cm="1">
         <f t="array" aca="1" ref="D840" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C840))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C840))=1), "C", "")</f>
         <v/>
@@ -56502,7 +55665,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B841" s="4"/>
       <c r="D841" t="str" cm="1">
         <f t="array" aca="1" ref="D841" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C841))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C841))=1), "C", "")</f>
         <v/>
@@ -56525,7 +55687,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B842" s="4"/>
       <c r="D842" t="str" cm="1">
         <f t="array" aca="1" ref="D842" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C842))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C842))=1), "C", "")</f>
         <v/>
@@ -56548,7 +55709,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B843" s="4"/>
       <c r="D843" t="str" cm="1">
         <f t="array" aca="1" ref="D843" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C843))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C843))=1), "C", "")</f>
         <v/>
@@ -56571,7 +55731,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B844" s="4"/>
       <c r="D844" t="str" cm="1">
         <f t="array" aca="1" ref="D844" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C844))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C844))=1), "C", "")</f>
         <v/>
@@ -56594,7 +55753,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B845" s="4"/>
       <c r="D845" t="str" cm="1">
         <f t="array" aca="1" ref="D845" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C845))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C845))=1), "C", "")</f>
         <v/>
@@ -56617,7 +55775,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B846" s="4"/>
       <c r="D846" t="str" cm="1">
         <f t="array" aca="1" ref="D846" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C846))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C846))=1), "C", "")</f>
         <v/>
@@ -56640,7 +55797,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B847" s="4"/>
       <c r="D847" t="str" cm="1">
         <f t="array" aca="1" ref="D847" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C847))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C847))=1), "C", "")</f>
         <v/>
@@ -56663,7 +55819,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B848" s="4"/>
       <c r="D848" t="str" cm="1">
         <f t="array" aca="1" ref="D848" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C848))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C848))=1), "C", "")</f>
         <v/>
@@ -56686,7 +55841,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B849" s="4"/>
       <c r="D849" t="str" cm="1">
         <f t="array" aca="1" ref="D849" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C849))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C849))=1), "C", "")</f>
         <v/>
@@ -56709,7 +55863,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B850" s="4"/>
       <c r="D850" t="str" cm="1">
         <f t="array" aca="1" ref="D850" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C850))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C850))=1), "C", "")</f>
         <v/>
@@ -56732,7 +55885,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B851" s="4"/>
       <c r="D851" t="str" cm="1">
         <f t="array" aca="1" ref="D851" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C851))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C851))=1), "C", "")</f>
         <v/>
@@ -56755,7 +55907,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B852" s="4"/>
       <c r="D852" t="str" cm="1">
         <f t="array" aca="1" ref="D852" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C852))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C852))=1), "C", "")</f>
         <v/>
@@ -56778,7 +55929,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B853" s="4"/>
       <c r="D853" t="str" cm="1">
         <f t="array" aca="1" ref="D853" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C853))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C853))=1), "C", "")</f>
         <v/>
@@ -56801,7 +55951,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B854" s="4"/>
       <c r="D854" t="str" cm="1">
         <f t="array" aca="1" ref="D854" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C854))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C854))=1), "C", "")</f>
         <v/>
@@ -56824,7 +55973,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B855" s="4"/>
       <c r="D855" t="str" cm="1">
         <f t="array" aca="1" ref="D855" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C855))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C855))=1), "C", "")</f>
         <v/>
@@ -56847,7 +55995,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B856" s="4"/>
       <c r="D856" t="str" cm="1">
         <f t="array" aca="1" ref="D856" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C856))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C856))=1), "C", "")</f>
         <v/>
@@ -56870,7 +56017,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B857" s="4"/>
       <c r="D857" t="str" cm="1">
         <f t="array" aca="1" ref="D857" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C857))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C857))=1), "C", "")</f>
         <v/>
@@ -56893,7 +56039,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B858" s="4"/>
       <c r="D858" t="str" cm="1">
         <f t="array" aca="1" ref="D858" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C858))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C858))=1), "C", "")</f>
         <v/>
@@ -56916,7 +56061,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B859" s="4"/>
       <c r="D859" t="str" cm="1">
         <f t="array" aca="1" ref="D859" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C859))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C859))=1), "C", "")</f>
         <v/>
@@ -56939,7 +56083,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B860" s="4"/>
       <c r="D860" t="str" cm="1">
         <f t="array" aca="1" ref="D860" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C860))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C860))=1), "C", "")</f>
         <v/>
@@ -56962,7 +56105,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B861" s="4"/>
       <c r="D861" t="str" cm="1">
         <f t="array" aca="1" ref="D861" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C861))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C861))=1), "C", "")</f>
         <v/>
@@ -56985,7 +56127,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B862" s="4"/>
       <c r="D862" t="str" cm="1">
         <f t="array" aca="1" ref="D862" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C862))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C862))=1), "C", "")</f>
         <v/>
@@ -57008,7 +56149,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B863" s="4"/>
       <c r="D863" t="str" cm="1">
         <f t="array" aca="1" ref="D863" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C863))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C863))=1), "C", "")</f>
         <v/>
@@ -57031,7 +56171,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B864" s="4"/>
       <c r="D864" t="str" cm="1">
         <f t="array" aca="1" ref="D864" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C864))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C864))=1), "C", "")</f>
         <v/>
@@ -57054,7 +56193,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B865" s="4"/>
       <c r="D865" t="str" cm="1">
         <f t="array" aca="1" ref="D865" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C865))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C865))=1), "C", "")</f>
         <v/>
@@ -57077,7 +56215,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B866" s="4"/>
       <c r="D866" t="str" cm="1">
         <f t="array" aca="1" ref="D866" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C866))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C866))=1), "C", "")</f>
         <v/>
@@ -57100,7 +56237,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B867" s="4"/>
       <c r="D867" t="str" cm="1">
         <f t="array" aca="1" ref="D867" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C867))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C867))=1), "C", "")</f>
         <v/>
@@ -57123,7 +56259,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B868" s="4"/>
       <c r="D868" t="str" cm="1">
         <f t="array" aca="1" ref="D868" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C868))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C868))=1), "C", "")</f>
         <v/>
@@ -57146,7 +56281,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B869" s="4"/>
       <c r="D869" t="str" cm="1">
         <f t="array" aca="1" ref="D869" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C869))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C869))=1), "C", "")</f>
         <v/>
@@ -57169,7 +56303,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B870" s="4"/>
       <c r="D870" t="str" cm="1">
         <f t="array" aca="1" ref="D870" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C870))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C870))=1), "C", "")</f>
         <v/>
@@ -57192,7 +56325,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B871" s="4"/>
       <c r="D871" t="str" cm="1">
         <f t="array" aca="1" ref="D871" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C871))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C871))=1), "C", "")</f>
         <v/>
@@ -57215,7 +56347,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B872" s="4"/>
       <c r="D872" t="str" cm="1">
         <f t="array" aca="1" ref="D872" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C872))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C872))=1), "C", "")</f>
         <v/>
@@ -57238,7 +56369,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B873" s="4"/>
       <c r="D873" t="str" cm="1">
         <f t="array" aca="1" ref="D873" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C873))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C873))=1), "C", "")</f>
         <v/>
@@ -57261,7 +56391,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B874" s="4"/>
       <c r="D874" t="str" cm="1">
         <f t="array" aca="1" ref="D874" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C874))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C874))=1), "C", "")</f>
         <v/>
@@ -57284,7 +56413,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B875" s="4"/>
       <c r="D875" t="str" cm="1">
         <f t="array" aca="1" ref="D875" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C875))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C875))=1), "C", "")</f>
         <v/>
@@ -57307,7 +56435,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B876" s="4"/>
       <c r="D876" t="str" cm="1">
         <f t="array" aca="1" ref="D876" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C876))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C876))=1), "C", "")</f>
         <v/>
@@ -57330,7 +56457,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B877" s="4"/>
       <c r="D877" t="str" cm="1">
         <f t="array" aca="1" ref="D877" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C877))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C877))=1), "C", "")</f>
         <v/>
@@ -57353,7 +56479,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B878" s="4"/>
       <c r="D878" t="str" cm="1">
         <f t="array" aca="1" ref="D878" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C878))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C878))=1), "C", "")</f>
         <v/>
@@ -57376,7 +56501,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B879" s="4"/>
       <c r="D879" t="str" cm="1">
         <f t="array" aca="1" ref="D879" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C879))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C879))=1), "C", "")</f>
         <v/>
@@ -57399,7 +56523,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B880" s="4"/>
       <c r="D880" t="str" cm="1">
         <f t="array" aca="1" ref="D880" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C880))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C880))=1), "C", "")</f>
         <v/>
@@ -57422,7 +56545,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B881" s="4"/>
       <c r="D881" t="str" cm="1">
         <f t="array" aca="1" ref="D881" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C881))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C881))=1), "C", "")</f>
         <v/>
@@ -57445,7 +56567,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B882" s="4"/>
       <c r="D882" t="str" cm="1">
         <f t="array" aca="1" ref="D882" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C882))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C882))=1), "C", "")</f>
         <v/>
@@ -57468,7 +56589,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B883" s="4"/>
       <c r="D883" t="str" cm="1">
         <f t="array" aca="1" ref="D883" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C883))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C883))=1), "C", "")</f>
         <v/>
@@ -57491,7 +56611,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B884" s="4"/>
       <c r="D884" t="str" cm="1">
         <f t="array" aca="1" ref="D884" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C884))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C884))=1), "C", "")</f>
         <v/>
@@ -57514,7 +56633,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B885" s="4"/>
       <c r="D885" t="str" cm="1">
         <f t="array" aca="1" ref="D885" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C885))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C885))=1), "C", "")</f>
         <v/>
@@ -57537,7 +56655,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B886" s="4"/>
       <c r="D886" t="str" cm="1">
         <f t="array" aca="1" ref="D886" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C886))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C886))=1), "C", "")</f>
         <v/>
@@ -57560,7 +56677,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B887" s="4"/>
       <c r="D887" t="str" cm="1">
         <f t="array" aca="1" ref="D887" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C887))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C887))=1), "C", "")</f>
         <v/>
@@ -57583,7 +56699,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B888" s="4"/>
       <c r="D888" t="str" cm="1">
         <f t="array" aca="1" ref="D888" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C888))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C888))=1), "C", "")</f>
         <v/>
@@ -57606,7 +56721,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B889" s="4"/>
       <c r="D889" t="str" cm="1">
         <f t="array" aca="1" ref="D889" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C889))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C889))=1), "C", "")</f>
         <v/>
@@ -57629,7 +56743,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B890" s="4"/>
       <c r="D890" t="str" cm="1">
         <f t="array" aca="1" ref="D890" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C890))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C890))=1), "C", "")</f>
         <v/>
@@ -57652,7 +56765,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B891" s="4"/>
       <c r="D891" t="str" cm="1">
         <f t="array" aca="1" ref="D891" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C891))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C891))=1), "C", "")</f>
         <v/>
@@ -57675,7 +56787,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B892" s="4"/>
       <c r="D892" t="str" cm="1">
         <f t="array" aca="1" ref="D892" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C892))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C892))=1), "C", "")</f>
         <v/>
@@ -57698,7 +56809,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B893" s="4"/>
       <c r="D893" t="str" cm="1">
         <f t="array" aca="1" ref="D893" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C893))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C893))=1), "C", "")</f>
         <v/>
@@ -57721,7 +56831,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B894" s="4"/>
       <c r="D894" t="str" cm="1">
         <f t="array" aca="1" ref="D894" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C894))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C894))=1), "C", "")</f>
         <v/>
@@ -57744,7 +56853,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B895" s="4"/>
       <c r="D895" t="str" cm="1">
         <f t="array" aca="1" ref="D895" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C895))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C895))=1), "C", "")</f>
         <v/>
@@ -57767,7 +56875,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B896" s="4"/>
       <c r="D896" t="str" cm="1">
         <f t="array" aca="1" ref="D896" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C896))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C896))=1), "C", "")</f>
         <v/>
@@ -57790,7 +56897,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B897" s="4"/>
       <c r="D897" t="str" cm="1">
         <f t="array" aca="1" ref="D897" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C897))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C897))=1), "C", "")</f>
         <v/>
@@ -57813,7 +56919,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B898" s="4"/>
       <c r="D898" t="str" cm="1">
         <f t="array" aca="1" ref="D898" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C898))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C898))=1), "C", "")</f>
         <v/>
@@ -57836,7 +56941,6 @@
         <f t="shared" ref="A899:A962" ca="1" si="48">IF(AND(C899&lt;&gt;"",D899&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D899),"_"),C899),"")</f>
         <v/>
       </c>
-      <c r="B899" s="4"/>
       <c r="D899" t="str" cm="1">
         <f t="array" aca="1" ref="D899" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C899))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C899))=1), "C", "")</f>
         <v/>
@@ -57859,7 +56963,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B900" s="4"/>
       <c r="D900" t="str" cm="1">
         <f t="array" aca="1" ref="D900" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C900))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C900))=1), "C", "")</f>
         <v/>
@@ -57882,7 +56985,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B901" s="4"/>
       <c r="D901" t="str" cm="1">
         <f t="array" aca="1" ref="D901" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C901))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C901))=1), "C", "")</f>
         <v/>
@@ -57905,7 +57007,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B902" s="4"/>
       <c r="D902" t="str" cm="1">
         <f t="array" aca="1" ref="D902" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C902))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C902))=1), "C", "")</f>
         <v/>
@@ -57928,7 +57029,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B903" s="4"/>
       <c r="D903" t="str" cm="1">
         <f t="array" aca="1" ref="D903" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C903))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C903))=1), "C", "")</f>
         <v/>
@@ -57951,7 +57051,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B904" s="4"/>
       <c r="D904" t="str" cm="1">
         <f t="array" aca="1" ref="D904" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C904))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C904))=1), "C", "")</f>
         <v/>
@@ -57974,7 +57073,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B905" s="4"/>
       <c r="D905" t="str" cm="1">
         <f t="array" aca="1" ref="D905" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C905))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C905))=1), "C", "")</f>
         <v/>
@@ -57997,7 +57095,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B906" s="4"/>
       <c r="D906" t="str" cm="1">
         <f t="array" aca="1" ref="D906" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C906))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C906))=1), "C", "")</f>
         <v/>
@@ -58020,7 +57117,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B907" s="4"/>
       <c r="D907" t="str" cm="1">
         <f t="array" aca="1" ref="D907" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C907))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C907))=1), "C", "")</f>
         <v/>
@@ -58043,7 +57139,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B908" s="4"/>
       <c r="D908" t="str" cm="1">
         <f t="array" aca="1" ref="D908" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C908))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C908))=1), "C", "")</f>
         <v/>
@@ -58066,7 +57161,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B909" s="4"/>
       <c r="D909" t="str" cm="1">
         <f t="array" aca="1" ref="D909" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C909))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C909))=1), "C", "")</f>
         <v/>
@@ -58089,7 +57183,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B910" s="4"/>
       <c r="D910" t="str" cm="1">
         <f t="array" aca="1" ref="D910" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C910))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C910))=1), "C", "")</f>
         <v/>
@@ -58112,7 +57205,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B911" s="4"/>
       <c r="D911" t="str" cm="1">
         <f t="array" aca="1" ref="D911" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C911))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C911))=1), "C", "")</f>
         <v/>
@@ -58135,7 +57227,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B912" s="4"/>
       <c r="D912" t="str" cm="1">
         <f t="array" aca="1" ref="D912" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C912))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C912))=1), "C", "")</f>
         <v/>
@@ -58158,7 +57249,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B913" s="4"/>
       <c r="D913" t="str" cm="1">
         <f t="array" aca="1" ref="D913" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C913))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C913))=1), "C", "")</f>
         <v/>
@@ -58181,7 +57271,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B914" s="4"/>
       <c r="D914" t="str" cm="1">
         <f t="array" aca="1" ref="D914" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C914))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C914))=1), "C", "")</f>
         <v/>
@@ -58204,7 +57293,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B915" s="4"/>
       <c r="D915" t="str" cm="1">
         <f t="array" aca="1" ref="D915" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C915))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C915))=1), "C", "")</f>
         <v/>
@@ -58227,7 +57315,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B916" s="4"/>
       <c r="D916" t="str" cm="1">
         <f t="array" aca="1" ref="D916" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C916))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C916))=1), "C", "")</f>
         <v/>
@@ -58250,7 +57337,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B917" s="4"/>
       <c r="D917" t="str" cm="1">
         <f t="array" aca="1" ref="D917" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C917))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C917))=1), "C", "")</f>
         <v/>
@@ -58273,7 +57359,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B918" s="4"/>
       <c r="D918" t="str" cm="1">
         <f t="array" aca="1" ref="D918" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C918))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C918))=1), "C", "")</f>
         <v/>
@@ -58296,7 +57381,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B919" s="4"/>
       <c r="D919" t="str" cm="1">
         <f t="array" aca="1" ref="D919" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C919))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C919))=1), "C", "")</f>
         <v/>
@@ -58319,7 +57403,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B920" s="4"/>
       <c r="D920" t="str" cm="1">
         <f t="array" aca="1" ref="D920" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C920))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C920))=1), "C", "")</f>
         <v/>
@@ -58342,7 +57425,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B921" s="4"/>
       <c r="D921" t="str" cm="1">
         <f t="array" aca="1" ref="D921" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C921))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C921))=1), "C", "")</f>
         <v/>
@@ -58365,7 +57447,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B922" s="4"/>
       <c r="D922" t="str" cm="1">
         <f t="array" aca="1" ref="D922" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C922))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C922))=1), "C", "")</f>
         <v/>
@@ -58388,7 +57469,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B923" s="4"/>
       <c r="D923" t="str" cm="1">
         <f t="array" aca="1" ref="D923" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C923))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C923))=1), "C", "")</f>
         <v/>
@@ -58411,7 +57491,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B924" s="4"/>
       <c r="D924" t="str" cm="1">
         <f t="array" aca="1" ref="D924" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C924))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C924))=1), "C", "")</f>
         <v/>
@@ -58434,7 +57513,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B925" s="4"/>
       <c r="D925" t="str" cm="1">
         <f t="array" aca="1" ref="D925" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C925))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C925))=1), "C", "")</f>
         <v/>
@@ -58457,7 +57535,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B926" s="4"/>
       <c r="D926" t="str" cm="1">
         <f t="array" aca="1" ref="D926" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C926))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C926))=1), "C", "")</f>
         <v/>
@@ -58480,7 +57557,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B927" s="4"/>
       <c r="D927" t="str" cm="1">
         <f t="array" aca="1" ref="D927" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C927))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C927))=1), "C", "")</f>
         <v/>
@@ -58503,7 +57579,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B928" s="4"/>
       <c r="D928" t="str" cm="1">
         <f t="array" aca="1" ref="D928" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C928))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C928))=1), "C", "")</f>
         <v/>
@@ -58526,7 +57601,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B929" s="4"/>
       <c r="D929" t="str" cm="1">
         <f t="array" aca="1" ref="D929" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C929))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C929))=1), "C", "")</f>
         <v/>
@@ -58549,7 +57623,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B930" s="4"/>
       <c r="D930" t="str" cm="1">
         <f t="array" aca="1" ref="D930" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C930))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C930))=1), "C", "")</f>
         <v/>
@@ -58572,7 +57645,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B931" s="4"/>
       <c r="D931" t="str" cm="1">
         <f t="array" aca="1" ref="D931" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C931))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C931))=1), "C", "")</f>
         <v/>
@@ -58595,7 +57667,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B932" s="4"/>
       <c r="D932" t="str" cm="1">
         <f t="array" aca="1" ref="D932" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C932))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C932))=1), "C", "")</f>
         <v/>
@@ -58618,7 +57689,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B933" s="4"/>
       <c r="D933" t="str" cm="1">
         <f t="array" aca="1" ref="D933" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C933))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C933))=1), "C", "")</f>
         <v/>
@@ -58641,7 +57711,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B934" s="4"/>
       <c r="D934" t="str" cm="1">
         <f t="array" aca="1" ref="D934" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C934))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C934))=1), "C", "")</f>
         <v/>
@@ -58664,7 +57733,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B935" s="4"/>
       <c r="D935" t="str" cm="1">
         <f t="array" aca="1" ref="D935" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C935))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C935))=1), "C", "")</f>
         <v/>
@@ -58687,7 +57755,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B936" s="4"/>
       <c r="D936" t="str" cm="1">
         <f t="array" aca="1" ref="D936" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C936))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C936))=1), "C", "")</f>
         <v/>
@@ -58710,7 +57777,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B937" s="4"/>
       <c r="D937" t="str" cm="1">
         <f t="array" aca="1" ref="D937" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C937))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C937))=1), "C", "")</f>
         <v/>
@@ -58733,7 +57799,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B938" s="4"/>
       <c r="D938" t="str" cm="1">
         <f t="array" aca="1" ref="D938" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C938))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C938))=1), "C", "")</f>
         <v/>
@@ -58756,7 +57821,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B939" s="4"/>
       <c r="D939" t="str" cm="1">
         <f t="array" aca="1" ref="D939" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C939))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C939))=1), "C", "")</f>
         <v/>
@@ -58779,7 +57843,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B940" s="4"/>
       <c r="D940" t="str" cm="1">
         <f t="array" aca="1" ref="D940" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C940))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C940))=1), "C", "")</f>
         <v/>
@@ -58802,7 +57865,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B941" s="4"/>
       <c r="D941" t="str" cm="1">
         <f t="array" aca="1" ref="D941" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C941))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C941))=1), "C", "")</f>
         <v/>
@@ -58825,7 +57887,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B942" s="4"/>
       <c r="D942" t="str" cm="1">
         <f t="array" aca="1" ref="D942" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C942))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C942))=1), "C", "")</f>
         <v/>
@@ -58848,7 +57909,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B943" s="4"/>
       <c r="D943" t="str" cm="1">
         <f t="array" aca="1" ref="D943" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C943))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C943))=1), "C", "")</f>
         <v/>
@@ -58871,7 +57931,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B944" s="4"/>
       <c r="D944" t="str" cm="1">
         <f t="array" aca="1" ref="D944" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C944))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C944))=1), "C", "")</f>
         <v/>
@@ -58894,7 +57953,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B945" s="4"/>
       <c r="D945" t="str" cm="1">
         <f t="array" aca="1" ref="D945" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C945))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C945))=1), "C", "")</f>
         <v/>
@@ -58917,7 +57975,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B946" s="4"/>
       <c r="D946" t="str" cm="1">
         <f t="array" aca="1" ref="D946" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C946))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C946))=1), "C", "")</f>
         <v/>
@@ -58940,7 +57997,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B947" s="4"/>
       <c r="D947" t="str" cm="1">
         <f t="array" aca="1" ref="D947" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C947))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C947))=1), "C", "")</f>
         <v/>
@@ -58963,7 +58019,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B948" s="4"/>
       <c r="D948" t="str" cm="1">
         <f t="array" aca="1" ref="D948" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C948))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C948))=1), "C", "")</f>
         <v/>
@@ -58986,7 +58041,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B949" s="4"/>
       <c r="D949" t="str" cm="1">
         <f t="array" aca="1" ref="D949" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C949))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C949))=1), "C", "")</f>
         <v/>
@@ -59009,7 +58063,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B950" s="4"/>
       <c r="D950" t="str" cm="1">
         <f t="array" aca="1" ref="D950" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C950))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C950))=1), "C", "")</f>
         <v/>
@@ -59032,7 +58085,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B951" s="4"/>
       <c r="D951" t="str" cm="1">
         <f t="array" aca="1" ref="D951" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C951))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C951))=1), "C", "")</f>
         <v/>
@@ -59055,7 +58107,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B952" s="4"/>
       <c r="D952" t="str" cm="1">
         <f t="array" aca="1" ref="D952" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C952))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C952))=1), "C", "")</f>
         <v/>
@@ -59078,7 +58129,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B953" s="4"/>
       <c r="D953" t="str" cm="1">
         <f t="array" aca="1" ref="D953" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C953))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C953))=1), "C", "")</f>
         <v/>
@@ -59101,7 +58151,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B954" s="4"/>
       <c r="D954" t="str" cm="1">
         <f t="array" aca="1" ref="D954" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C954))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C954))=1), "C", "")</f>
         <v/>
@@ -59124,7 +58173,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B955" s="4"/>
       <c r="D955" t="str" cm="1">
         <f t="array" aca="1" ref="D955" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C955))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C955))=1), "C", "")</f>
         <v/>
@@ -59147,7 +58195,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B956" s="4"/>
       <c r="D956" t="str" cm="1">
         <f t="array" aca="1" ref="D956" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C956))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C956))=1), "C", "")</f>
         <v/>
@@ -59170,7 +58217,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B957" s="4"/>
       <c r="D957" t="str" cm="1">
         <f t="array" aca="1" ref="D957" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C957))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C957))=1), "C", "")</f>
         <v/>
@@ -59193,7 +58239,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B958" s="4"/>
       <c r="D958" t="str" cm="1">
         <f t="array" aca="1" ref="D958" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C958))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C958))=1), "C", "")</f>
         <v/>
@@ -59216,7 +58261,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B959" s="4"/>
       <c r="D959" t="str" cm="1">
         <f t="array" aca="1" ref="D959" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C959))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C959))=1), "C", "")</f>
         <v/>
@@ -59239,7 +58283,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B960" s="4"/>
       <c r="D960" t="str" cm="1">
         <f t="array" aca="1" ref="D960" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C960))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C960))=1), "C", "")</f>
         <v/>
@@ -59262,7 +58305,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B961" s="4"/>
       <c r="D961" t="str" cm="1">
         <f t="array" aca="1" ref="D961" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C961))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C961))=1), "C", "")</f>
         <v/>
@@ -59285,7 +58327,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B962" s="4"/>
       <c r="D962" t="str" cm="1">
         <f t="array" aca="1" ref="D962" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C962))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C962))=1), "C", "")</f>
         <v/>
@@ -59308,7 +58349,6 @@
         <f t="shared" ref="A963:A1000" ca="1" si="52">IF(AND(C963&lt;&gt;"",D963&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D963),"_"),C963),"")</f>
         <v/>
       </c>
-      <c r="B963" s="4"/>
       <c r="D963" t="str" cm="1">
         <f t="array" aca="1" ref="D963" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C963))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C963))=1), "C", "")</f>
         <v/>
@@ -59331,7 +58371,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B964" s="4"/>
       <c r="D964" t="str" cm="1">
         <f t="array" aca="1" ref="D964" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C964))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C964))=1), "C", "")</f>
         <v/>
@@ -59354,7 +58393,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B965" s="4"/>
       <c r="D965" t="str" cm="1">
         <f t="array" aca="1" ref="D965" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C965))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C965))=1), "C", "")</f>
         <v/>
@@ -59377,7 +58415,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B966" s="4"/>
       <c r="D966" t="str" cm="1">
         <f t="array" aca="1" ref="D966" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C966))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C966))=1), "C", "")</f>
         <v/>
@@ -59400,7 +58437,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B967" s="4"/>
       <c r="D967" t="str" cm="1">
         <f t="array" aca="1" ref="D967" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C967))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C967))=1), "C", "")</f>
         <v/>
@@ -59423,7 +58459,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B968" s="4"/>
       <c r="D968" t="str" cm="1">
         <f t="array" aca="1" ref="D968" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C968))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C968))=1), "C", "")</f>
         <v/>
@@ -59446,7 +58481,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B969" s="4"/>
       <c r="D969" t="str" cm="1">
         <f t="array" aca="1" ref="D969" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C969))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C969))=1), "C", "")</f>
         <v/>
@@ -59469,7 +58503,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B970" s="4"/>
       <c r="D970" t="str" cm="1">
         <f t="array" aca="1" ref="D970" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C970))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C970))=1), "C", "")</f>
         <v/>
@@ -59492,7 +58525,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B971" s="4"/>
       <c r="D971" t="str" cm="1">
         <f t="array" aca="1" ref="D971" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C971))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C971))=1), "C", "")</f>
         <v/>
@@ -59515,7 +58547,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B972" s="4"/>
       <c r="D972" t="str" cm="1">
         <f t="array" aca="1" ref="D972" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C972))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C972))=1), "C", "")</f>
         <v/>
@@ -59538,7 +58569,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B973" s="4"/>
       <c r="D973" t="str" cm="1">
         <f t="array" aca="1" ref="D973" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C973))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C973))=1), "C", "")</f>
         <v/>
@@ -59561,7 +58591,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B974" s="4"/>
       <c r="D974" t="str" cm="1">
         <f t="array" aca="1" ref="D974" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C974))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C974))=1), "C", "")</f>
         <v/>
@@ -59584,7 +58613,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B975" s="4"/>
       <c r="D975" t="str" cm="1">
         <f t="array" aca="1" ref="D975" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C975))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C975))=1), "C", "")</f>
         <v/>
@@ -59607,7 +58635,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B976" s="4"/>
       <c r="D976" t="str" cm="1">
         <f t="array" aca="1" ref="D976" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C976))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C976))=1), "C", "")</f>
         <v/>
@@ -59630,7 +58657,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B977" s="4"/>
       <c r="D977" t="str" cm="1">
         <f t="array" aca="1" ref="D977" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C977))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C977))=1), "C", "")</f>
         <v/>
@@ -59653,7 +58679,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B978" s="4"/>
       <c r="D978" t="str" cm="1">
         <f t="array" aca="1" ref="D978" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C978))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C978))=1), "C", "")</f>
         <v/>
@@ -59676,7 +58701,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B979" s="4"/>
       <c r="D979" t="str" cm="1">
         <f t="array" aca="1" ref="D979" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C979))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C979))=1), "C", "")</f>
         <v/>
@@ -59699,7 +58723,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B980" s="4"/>
       <c r="D980" t="str" cm="1">
         <f t="array" aca="1" ref="D980" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C980))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C980))=1), "C", "")</f>
         <v/>
@@ -59722,7 +58745,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B981" s="4"/>
       <c r="D981" t="str" cm="1">
         <f t="array" aca="1" ref="D981" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C981))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C981))=1), "C", "")</f>
         <v/>
@@ -59745,7 +58767,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B982" s="4"/>
       <c r="D982" t="str" cm="1">
         <f t="array" aca="1" ref="D982" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C982))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C982))=1), "C", "")</f>
         <v/>
@@ -59768,7 +58789,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B983" s="4"/>
       <c r="D983" t="str" cm="1">
         <f t="array" aca="1" ref="D983" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C983))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C983))=1), "C", "")</f>
         <v/>
@@ -59791,7 +58811,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B984" s="4"/>
       <c r="D984" t="str" cm="1">
         <f t="array" aca="1" ref="D984" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C984))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C984))=1), "C", "")</f>
         <v/>
@@ -59814,7 +58833,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B985" s="4"/>
       <c r="D985" t="str" cm="1">
         <f t="array" aca="1" ref="D985" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C985))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C985))=1), "C", "")</f>
         <v/>
@@ -59837,7 +58855,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B986" s="4"/>
       <c r="D986" t="str" cm="1">
         <f t="array" aca="1" ref="D986" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C986))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C986))=1), "C", "")</f>
         <v/>
@@ -59860,7 +58877,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B987" s="4"/>
       <c r="D987" t="str" cm="1">
         <f t="array" aca="1" ref="D987" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C987))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C987))=1), "C", "")</f>
         <v/>
@@ -59883,7 +58899,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B988" s="4"/>
       <c r="D988" t="str" cm="1">
         <f t="array" aca="1" ref="D988" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C988))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C988))=1), "C", "")</f>
         <v/>
@@ -59906,7 +58921,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B989" s="4"/>
       <c r="D989" t="str" cm="1">
         <f t="array" aca="1" ref="D989" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C989))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C989))=1), "C", "")</f>
         <v/>
@@ -59929,7 +58943,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B990" s="4"/>
       <c r="D990" t="str" cm="1">
         <f t="array" aca="1" ref="D990" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C990))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C990))=1), "C", "")</f>
         <v/>
@@ -59952,7 +58965,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B991" s="4"/>
       <c r="D991" t="str" cm="1">
         <f t="array" aca="1" ref="D991" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C991))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C991))=1), "C", "")</f>
         <v/>
@@ -59975,7 +58987,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B992" s="4"/>
       <c r="D992" t="str" cm="1">
         <f t="array" aca="1" ref="D992" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C992))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C992))=1), "C", "")</f>
         <v/>
@@ -59998,7 +59009,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B993" s="4"/>
       <c r="D993" t="str" cm="1">
         <f t="array" aca="1" ref="D993" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C993))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C993))=1), "C", "")</f>
         <v/>
@@ -60021,7 +59031,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B994" s="4"/>
       <c r="D994" t="str" cm="1">
         <f t="array" aca="1" ref="D994" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C994))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C994))=1), "C", "")</f>
         <v/>
@@ -60044,7 +59053,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B995" s="4"/>
       <c r="D995" t="str" cm="1">
         <f t="array" aca="1" ref="D995" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C995))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C995))=1), "C", "")</f>
         <v/>
@@ -60067,7 +59075,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B996" s="4"/>
       <c r="D996" t="str" cm="1">
         <f t="array" aca="1" ref="D996" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C996))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C996))=1), "C", "")</f>
         <v/>
@@ -60090,7 +59097,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B997" s="4"/>
       <c r="D997" t="str" cm="1">
         <f t="array" aca="1" ref="D997" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C997))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C997))=1), "C", "")</f>
         <v/>
@@ -60113,7 +59119,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B998" s="4"/>
       <c r="D998" t="str" cm="1">
         <f t="array" aca="1" ref="D998" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C998))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C998))=1), "C", "")</f>
         <v/>
@@ -60136,7 +59141,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B999" s="4"/>
       <c r="D999" t="str" cm="1">
         <f t="array" aca="1" ref="D999" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C999))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C999))=1), "C", "")</f>
         <v/>
@@ -60159,7 +59163,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B1000" s="4"/>
       <c r="D1000" t="str" cm="1">
         <f t="array" aca="1" ref="D1000" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C1000))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C1000))=1), "C", "")</f>
         <v/>

--- a/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout_simple_naming.xlsx
+++ b/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout_simple_naming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/jabj_mmmi_sdu_dk/Documents/PhD_Project_Jakob/Twin4build/python/BuildingEnergyModel/BuildingEnergyModel/twin4build/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E73693FB-AD66-4C1C-BA47-DFA0CC2CBC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{E73693FB-AD66-4C1C-BA47-DFA0CC2CBC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14D875ED-278A-44EE-8889-A105B8E949AB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-35325" yWindow="3090" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="10" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="3" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="136">
   <si>
     <t>Ventilation system name</t>
   </si>
@@ -101,12 +101,6 @@
   </si>
   <si>
     <t>Cooling system name</t>
-  </si>
-  <si>
-    <t>Heating1</t>
-  </si>
-  <si>
-    <t>Ventilation1</t>
   </si>
   <si>
     <t>thermalMassHeatCapacity</t>
@@ -283,9 +277,6 @@
     <t>isContainedIn</t>
   </si>
   <si>
-    <t>Ventilation1;Heating1</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -415,12 +406,6 @@
     <t>Heating meter</t>
   </si>
   <si>
-    <t>Indoor temperature sensor</t>
-  </si>
-  <si>
-    <t>Indoor CO2 sensor</t>
-  </si>
-  <si>
     <t>Valve position sensor</t>
   </si>
   <si>
@@ -500,6 +485,21 @@
   </si>
   <si>
     <t>VE02 Secondary Airflow Temperature BHR property</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>V1;H1</t>
+  </si>
+  <si>
+    <t>Space temperature sensor</t>
+  </si>
+  <si>
+    <t>Space CO2 sensor</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,10 +1051,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,54 +1089,54 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="L1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D904F809-0565-4493-A542-77B590BDC86C}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1168,119 +1168,119 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
         <v>114</v>
       </c>
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
         <v>128</v>
-      </c>
-      <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,33 +1330,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
       <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1404,90 +1401,90 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1516,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1534,67 +1531,67 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1615,12 +1612,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1652,21 +1649,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C2">
         <v>466.54</v>
@@ -1691,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A747EB8B-49DD-40FE-8CAD-B5A7A33DF8B7}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,102 +1719,102 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R2">
         <f>4800/3600*1.225</f>
@@ -1826,22 +1823,22 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3" si="0">4800/3600*1.225</f>
@@ -6860,7 +6857,7 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6884,76 +6881,76 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L2">
         <f>3*515+2*572</f>
         <v>2689</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P2">
         <f>125000</f>
@@ -12913,7 +12910,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12934,60 +12931,60 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G2">
         <f>5*0.468</f>
@@ -22337,7 +22334,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22351,36 +22348,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -28371,7 +28368,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28392,54 +28389,54 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I2">
         <f>5000/3600*1.225</f>
@@ -34442,7 +34439,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34466,63 +34463,63 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H2">
         <f>5000/3600*1.225</f>
@@ -34534,16 +34531,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H3">
         <f>5000/3600*1.225</f>
@@ -40518,7 +40515,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40531,16 +40528,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -40548,30 +40545,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout_simple_naming.xlsx
+++ b/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout_simple_naming.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="21" documentId="8_{E73693FB-AD66-4C1C-BA47-DFA0CC2CBC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14D875ED-278A-44EE-8889-A105B8E949AB}"/>
   <bookViews>
-    <workbookView xWindow="-35325" yWindow="3090" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="10" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="3480" yWindow="3480" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="10" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="3" r:id="rId1"/>
